--- a/output.xlsx
+++ b/output.xlsx
@@ -520,7 +520,7 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -576,7 +576,7 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -632,7 +632,7 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -688,7 +688,7 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -744,7 +744,7 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -800,7 +800,7 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -856,7 +856,7 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -912,7 +912,7 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -968,7 +968,7 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1024,7 +1024,7 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1080,7 +1080,7 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1136,7 +1136,7 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1192,7 +1192,7 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1248,7 +1248,7 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1304,7 +1304,7 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1360,7 +1360,7 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1416,7 +1416,7 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1472,7 +1472,7 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1528,7 +1528,7 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1584,7 +1584,7 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1640,7 +1640,7 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1696,7 +1696,7 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -1752,7 +1752,7 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1808,7 +1808,7 @@
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -1864,7 +1864,7 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -1920,7 +1920,7 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -1976,7 +1976,7 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2032,7 +2032,7 @@
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2088,7 +2088,7 @@
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2144,7 +2144,7 @@
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2200,7 +2200,7 @@
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -2256,7 +2256,7 @@
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -2308,7 +2308,7 @@
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -2364,7 +2364,7 @@
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -2420,7 +2420,7 @@
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -2476,7 +2476,7 @@
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -2532,7 +2532,7 @@
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -2588,7 +2588,7 @@
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -2644,7 +2644,7 @@
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -2700,7 +2700,7 @@
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -2756,7 +2756,7 @@
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -2812,7 +2812,7 @@
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -2868,7 +2868,7 @@
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -2924,7 +2924,7 @@
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -2980,7 +2980,7 @@
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -3036,7 +3036,7 @@
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -3092,7 +3092,7 @@
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -3148,7 +3148,7 @@
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -3204,7 +3204,7 @@
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -3260,7 +3260,7 @@
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -3316,7 +3316,7 @@
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -3372,7 +3372,7 @@
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -3428,7 +3428,7 @@
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -3484,7 +3484,7 @@
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -3540,7 +3540,7 @@
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -3596,7 +3596,7 @@
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -3652,7 +3652,7 @@
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -3708,7 +3708,7 @@
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -3764,7 +3764,7 @@
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -3820,7 +3820,7 @@
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -3876,7 +3876,7 @@
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -3932,7 +3932,7 @@
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -3988,7 +3988,7 @@
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -4044,7 +4044,7 @@
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -4100,7 +4100,7 @@
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -4156,7 +4156,7 @@
       <c r="B198" t="inlineStr"/>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -4212,7 +4212,7 @@
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -4268,7 +4268,7 @@
       <c r="B204" t="inlineStr"/>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -4324,7 +4324,7 @@
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -4376,7 +4376,7 @@
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -4432,7 +4432,7 @@
       <c r="B213" t="inlineStr"/>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -4488,7 +4488,7 @@
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -4544,7 +4544,7 @@
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -4600,7 +4600,7 @@
       <c r="B222" t="inlineStr"/>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -4656,7 +4656,7 @@
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -4712,7 +4712,7 @@
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -4768,7 +4768,7 @@
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -4824,7 +4824,7 @@
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -4880,7 +4880,7 @@
       <c r="B237" t="inlineStr"/>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D237" t="n">
@@ -4936,7 +4936,7 @@
       <c r="B240" t="inlineStr"/>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -4992,7 +4992,7 @@
       <c r="B243" t="inlineStr"/>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -5048,7 +5048,7 @@
       <c r="B246" t="inlineStr"/>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -5104,7 +5104,7 @@
       <c r="B249" t="inlineStr"/>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -5160,7 +5160,7 @@
       <c r="B252" t="inlineStr"/>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -5216,7 +5216,7 @@
       <c r="B255" t="inlineStr"/>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -5272,7 +5272,7 @@
       <c r="B258" t="inlineStr"/>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -5328,7 +5328,7 @@
       <c r="B261" t="inlineStr"/>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D261" t="n">
@@ -5384,7 +5384,7 @@
       <c r="B264" t="inlineStr"/>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D264" t="n">
@@ -5440,7 +5440,7 @@
       <c r="B267" t="inlineStr"/>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D267" t="n">
@@ -5496,7 +5496,7 @@
       <c r="B270" t="inlineStr"/>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -5552,7 +5552,7 @@
       <c r="B273" t="inlineStr"/>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -5608,7 +5608,7 @@
       <c r="B276" t="inlineStr"/>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D276" t="n">
@@ -5664,7 +5664,7 @@
       <c r="B279" t="inlineStr"/>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D279" t="n">
@@ -5720,7 +5720,7 @@
       <c r="B282" t="inlineStr"/>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -5776,7 +5776,7 @@
       <c r="B285" t="inlineStr"/>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -5832,7 +5832,7 @@
       <c r="B288" t="inlineStr"/>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D288" t="n">
@@ -5888,7 +5888,7 @@
       <c r="B291" t="inlineStr"/>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D291" t="n">
@@ -5944,7 +5944,7 @@
       <c r="B294" t="inlineStr"/>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D294" t="n">
@@ -6000,7 +6000,7 @@
       <c r="B297" t="inlineStr"/>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D297" t="n">
@@ -6056,7 +6056,7 @@
       <c r="B300" t="inlineStr"/>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D300" t="n">
@@ -6112,7 +6112,7 @@
       <c r="B303" t="inlineStr"/>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D303" t="n">
@@ -6168,7 +6168,7 @@
       <c r="B306" t="inlineStr"/>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D306" t="n">
@@ -6224,7 +6224,7 @@
       <c r="B309" t="inlineStr"/>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D309" t="n">
@@ -6280,7 +6280,7 @@
       <c r="B312" t="inlineStr"/>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D312" t="n">
@@ -6336,7 +6336,7 @@
       <c r="B315" t="inlineStr"/>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D315" t="n">
@@ -6392,7 +6392,7 @@
       <c r="B318" t="inlineStr"/>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D318" t="n">
@@ -6448,7 +6448,7 @@
       <c r="B321" t="inlineStr"/>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D321" t="n">
@@ -6504,7 +6504,7 @@
       <c r="B324" t="inlineStr"/>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D324" t="n">
@@ -6560,7 +6560,7 @@
       <c r="B327" t="inlineStr"/>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D327" t="n">
@@ -6616,7 +6616,7 @@
       <c r="B330" t="inlineStr"/>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D330" t="n">
@@ -6672,7 +6672,7 @@
       <c r="B333" t="inlineStr"/>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D333" t="n">
@@ -6728,7 +6728,7 @@
       <c r="B336" t="inlineStr"/>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D336" t="n">
@@ -6784,7 +6784,7 @@
       <c r="B339" t="inlineStr"/>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D339" t="n">
@@ -6840,7 +6840,7 @@
       <c r="B342" t="inlineStr"/>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D342" t="n">
@@ -6896,7 +6896,7 @@
       <c r="B345" t="inlineStr"/>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D345" t="n">
@@ -6952,7 +6952,7 @@
       <c r="B348" t="inlineStr"/>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D348" t="n">
@@ -7008,7 +7008,7 @@
       <c r="B351" t="inlineStr"/>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D351" t="n">
@@ -7064,7 +7064,7 @@
       <c r="B354" t="inlineStr"/>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D354" t="n">
@@ -7120,7 +7120,7 @@
       <c r="B357" t="inlineStr"/>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D357" t="n">
@@ -7176,7 +7176,7 @@
       <c r="B360" t="inlineStr"/>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D360" t="n">
@@ -7232,7 +7232,7 @@
       <c r="B363" t="inlineStr"/>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D363" t="n">
@@ -7288,7 +7288,7 @@
       <c r="B366" t="inlineStr"/>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D366" t="n">
@@ -7344,7 +7344,7 @@
       <c r="B369" t="inlineStr"/>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D369" t="n">
@@ -7400,7 +7400,7 @@
       <c r="B372" t="inlineStr"/>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D372" t="n">
@@ -7456,7 +7456,7 @@
       <c r="B375" t="inlineStr"/>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D375" t="n">
@@ -7512,7 +7512,7 @@
       <c r="B378" t="inlineStr"/>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D378" t="n">
@@ -7568,7 +7568,7 @@
       <c r="B381" t="inlineStr"/>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D381" t="n">
@@ -7624,7 +7624,7 @@
       <c r="B384" t="inlineStr"/>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D384" t="n">
@@ -7680,7 +7680,7 @@
       <c r="B387" t="inlineStr"/>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D387" t="n">
@@ -7736,7 +7736,7 @@
       <c r="B390" t="inlineStr"/>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D390" t="n">
@@ -7792,7 +7792,7 @@
       <c r="B393" t="inlineStr"/>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D393" t="n">
@@ -7848,7 +7848,7 @@
       <c r="B396" t="inlineStr"/>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D396" t="n">
@@ -7904,7 +7904,7 @@
       <c r="B399" t="inlineStr"/>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D399" t="n">
@@ -7960,7 +7960,7 @@
       <c r="B402" t="inlineStr"/>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D402" t="n">
@@ -8016,7 +8016,7 @@
       <c r="B405" t="inlineStr"/>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D405" t="n">
@@ -8072,7 +8072,7 @@
       <c r="B408" t="inlineStr"/>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D408" t="n">
@@ -8128,7 +8128,7 @@
       <c r="B411" t="inlineStr"/>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D411" t="n">
@@ -8184,7 +8184,7 @@
       <c r="B414" t="inlineStr"/>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D414" t="n">
@@ -8240,7 +8240,7 @@
       <c r="B417" t="inlineStr"/>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D417" t="n">
@@ -8296,7 +8296,7 @@
       <c r="B420" t="inlineStr"/>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D420" t="n">
@@ -8352,7 +8352,7 @@
       <c r="B423" t="inlineStr"/>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D423" t="n">
@@ -8408,7 +8408,7 @@
       <c r="B426" t="inlineStr"/>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D426" t="n">
@@ -8464,7 +8464,7 @@
       <c r="B429" t="inlineStr"/>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D429" t="n">
@@ -8520,7 +8520,7 @@
       <c r="B432" t="inlineStr"/>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D432" t="n">
@@ -8576,7 +8576,7 @@
       <c r="B435" t="inlineStr"/>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D435" t="n">
@@ -8632,7 +8632,7 @@
       <c r="B438" t="inlineStr"/>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D438" t="n">
@@ -8688,7 +8688,7 @@
       <c r="B441" t="inlineStr"/>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D441" t="n">
@@ -8740,7 +8740,7 @@
       <c r="B444" t="inlineStr"/>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D444" t="n">
@@ -8796,7 +8796,7 @@
       <c r="B447" t="inlineStr"/>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D447" t="n">
@@ -8852,7 +8852,7 @@
       <c r="B450" t="inlineStr"/>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D450" t="n">
@@ -8908,7 +8908,7 @@
       <c r="B453" t="inlineStr"/>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D453" t="n">
@@ -8964,7 +8964,7 @@
       <c r="B456" t="inlineStr"/>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D456" t="n">
@@ -9020,7 +9020,7 @@
       <c r="B459" t="inlineStr"/>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D459" t="n">
@@ -9076,7 +9076,7 @@
       <c r="B462" t="inlineStr"/>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D462" t="n">
@@ -9132,7 +9132,7 @@
       <c r="B465" t="inlineStr"/>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D465" t="n">
@@ -9188,7 +9188,7 @@
       <c r="B468" t="inlineStr"/>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D468" t="n">
@@ -9244,7 +9244,7 @@
       <c r="B471" t="inlineStr"/>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D471" t="n">
@@ -9300,7 +9300,7 @@
       <c r="B474" t="inlineStr"/>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D474" t="n">
@@ -9356,7 +9356,7 @@
       <c r="B477" t="inlineStr"/>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D477" t="n">
@@ -9412,7 +9412,7 @@
       <c r="B480" t="inlineStr"/>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D480" t="n">
@@ -9468,7 +9468,7 @@
       <c r="B483" t="inlineStr"/>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D483" t="n">
@@ -9524,7 +9524,7 @@
       <c r="B486" t="inlineStr"/>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D486" t="n">
@@ -9580,7 +9580,7 @@
       <c r="B489" t="inlineStr"/>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D489" t="n">
@@ -9636,7 +9636,7 @@
       <c r="B492" t="inlineStr"/>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D492" t="n">
@@ -9692,7 +9692,7 @@
       <c r="B495" t="inlineStr"/>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D495" t="n">
@@ -9748,7 +9748,7 @@
       <c r="B498" t="inlineStr"/>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D498" t="n">
@@ -9804,7 +9804,7 @@
       <c r="B501" t="inlineStr"/>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D501" t="n">
@@ -9856,7 +9856,7 @@
       <c r="B504" t="inlineStr"/>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D504" t="n">
@@ -9912,7 +9912,7 @@
       <c r="B507" t="inlineStr"/>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D507" t="n">
@@ -9968,7 +9968,7 @@
       <c r="B510" t="inlineStr"/>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D510" t="n">
@@ -10024,7 +10024,7 @@
       <c r="B513" t="inlineStr"/>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D513" t="n">
@@ -10080,7 +10080,7 @@
       <c r="B516" t="inlineStr"/>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D516" t="n">
@@ -10136,7 +10136,7 @@
       <c r="B519" t="inlineStr"/>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D519" t="n">
@@ -10192,7 +10192,7 @@
       <c r="B522" t="inlineStr"/>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D522" t="n">
@@ -10248,7 +10248,7 @@
       <c r="B525" t="inlineStr"/>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D525" t="n">
@@ -10304,7 +10304,7 @@
       <c r="B528" t="inlineStr"/>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D528" t="n">
@@ -10360,7 +10360,7 @@
       <c r="B531" t="inlineStr"/>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D531" t="n">
@@ -10416,7 +10416,7 @@
       <c r="B534" t="inlineStr"/>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D534" t="n">
@@ -10472,7 +10472,7 @@
       <c r="B537" t="inlineStr"/>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D537" t="n">
@@ -10528,7 +10528,7 @@
       <c r="B540" t="inlineStr"/>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D540" t="n">
@@ -10584,7 +10584,7 @@
       <c r="B543" t="inlineStr"/>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D543" t="n">
@@ -10640,7 +10640,7 @@
       <c r="B546" t="inlineStr"/>
       <c r="C546" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D546" t="n">
@@ -10696,7 +10696,7 @@
       <c r="B549" t="inlineStr"/>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D549" t="n">
@@ -10752,7 +10752,7 @@
       <c r="B552" t="inlineStr"/>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D552" t="n">
@@ -10808,7 +10808,7 @@
       <c r="B555" t="inlineStr"/>
       <c r="C555" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D555" t="n">
@@ -10864,7 +10864,7 @@
       <c r="B558" t="inlineStr"/>
       <c r="C558" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D558" t="n">
@@ -10920,7 +10920,7 @@
       <c r="B561" t="inlineStr"/>
       <c r="C561" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D561" t="n">
@@ -10976,7 +10976,7 @@
       <c r="B564" t="inlineStr"/>
       <c r="C564" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D564" t="n">
@@ -11032,7 +11032,7 @@
       <c r="B567" t="inlineStr"/>
       <c r="C567" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D567" t="n">
@@ -11088,7 +11088,7 @@
       <c r="B570" t="inlineStr"/>
       <c r="C570" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D570" t="n">
@@ -11144,7 +11144,7 @@
       <c r="B573" t="inlineStr"/>
       <c r="C573" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D573" t="n">
@@ -11200,7 +11200,7 @@
       <c r="B576" t="inlineStr"/>
       <c r="C576" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D576" t="n">
@@ -11256,7 +11256,7 @@
       <c r="B579" t="inlineStr"/>
       <c r="C579" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D579" t="n">
@@ -11312,7 +11312,7 @@
       <c r="B582" t="inlineStr"/>
       <c r="C582" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D582" t="n">
@@ -11368,7 +11368,7 @@
       <c r="B585" t="inlineStr"/>
       <c r="C585" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D585" t="n">
@@ -11424,7 +11424,7 @@
       <c r="B588" t="inlineStr"/>
       <c r="C588" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D588" t="n">
@@ -11480,7 +11480,7 @@
       <c r="B591" t="inlineStr"/>
       <c r="C591" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D591" t="n">
@@ -11536,7 +11536,7 @@
       <c r="B594" t="inlineStr"/>
       <c r="C594" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D594" t="n">
@@ -11592,7 +11592,7 @@
       <c r="B597" t="inlineStr"/>
       <c r="C597" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D597" t="n">
@@ -11648,7 +11648,7 @@
       <c r="B600" t="inlineStr"/>
       <c r="C600" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D600" t="n">
@@ -11704,7 +11704,7 @@
       <c r="B603" t="inlineStr"/>
       <c r="C603" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D603" t="n">
@@ -11760,7 +11760,7 @@
       <c r="B606" t="inlineStr"/>
       <c r="C606" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D606" t="n">
@@ -11816,7 +11816,7 @@
       <c r="B609" t="inlineStr"/>
       <c r="C609" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D609" t="n">
@@ -11868,7 +11868,7 @@
       <c r="B612" t="inlineStr"/>
       <c r="C612" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D612" t="n">
@@ -11924,7 +11924,7 @@
       <c r="B615" t="inlineStr"/>
       <c r="C615" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D615" t="n">
@@ -11980,7 +11980,7 @@
       <c r="B618" t="inlineStr"/>
       <c r="C618" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D618" t="n">
@@ -12036,7 +12036,7 @@
       <c r="B621" t="inlineStr"/>
       <c r="C621" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D621" t="n">
@@ -12092,7 +12092,7 @@
       <c r="B624" t="inlineStr"/>
       <c r="C624" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D624" t="n">
@@ -12148,7 +12148,7 @@
       <c r="B627" t="inlineStr"/>
       <c r="C627" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D627" t="n">
@@ -12204,7 +12204,7 @@
       <c r="B630" t="inlineStr"/>
       <c r="C630" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D630" t="n">
@@ -12260,7 +12260,7 @@
       <c r="B633" t="inlineStr"/>
       <c r="C633" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D633" t="n">
@@ -12316,7 +12316,7 @@
       <c r="B636" t="inlineStr"/>
       <c r="C636" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D636" t="n">
@@ -12372,7 +12372,7 @@
       <c r="B639" t="inlineStr"/>
       <c r="C639" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D639" t="n">
@@ -12428,7 +12428,7 @@
       <c r="B642" t="inlineStr"/>
       <c r="C642" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D642" t="n">
@@ -12484,7 +12484,7 @@
       <c r="B645" t="inlineStr"/>
       <c r="C645" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D645" t="n">
@@ -12540,7 +12540,7 @@
       <c r="B648" t="inlineStr"/>
       <c r="C648" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D648" t="n">
@@ -12592,7 +12592,7 @@
       <c r="B651" t="inlineStr"/>
       <c r="C651" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D651" t="n">
@@ -12644,7 +12644,7 @@
       <c r="B654" t="inlineStr"/>
       <c r="C654" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D654" t="n">
@@ -12696,7 +12696,7 @@
       <c r="B657" t="inlineStr"/>
       <c r="C657" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D657" t="n">
@@ -12748,7 +12748,7 @@
       <c r="B660" t="inlineStr"/>
       <c r="C660" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D660" t="n">
@@ -12800,7 +12800,7 @@
       <c r="B663" t="inlineStr"/>
       <c r="C663" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D663" t="n">
@@ -12856,7 +12856,7 @@
       <c r="B666" t="inlineStr"/>
       <c r="C666" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D666" t="n">
@@ -12912,7 +12912,7 @@
       <c r="B669" t="inlineStr"/>
       <c r="C669" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D669" t="n">
@@ -12964,7 +12964,7 @@
       <c r="B672" t="inlineStr"/>
       <c r="C672" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D672" t="n">
@@ -13020,7 +13020,7 @@
       <c r="B675" t="inlineStr"/>
       <c r="C675" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D675" t="n">
@@ -13076,7 +13076,7 @@
       <c r="B678" t="inlineStr"/>
       <c r="C678" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D678" t="n">
@@ -13132,7 +13132,7 @@
       <c r="B681" t="inlineStr"/>
       <c r="C681" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D681" t="n">
@@ -13188,7 +13188,7 @@
       <c r="B684" t="inlineStr"/>
       <c r="C684" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D684" t="n">
@@ -13244,7 +13244,7 @@
       <c r="B687" t="inlineStr"/>
       <c r="C687" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D687" t="n">
@@ -13300,7 +13300,7 @@
       <c r="B690" t="inlineStr"/>
       <c r="C690" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D690" t="n">
@@ -13356,7 +13356,7 @@
       <c r="B693" t="inlineStr"/>
       <c r="C693" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D693" t="n">
@@ -13412,7 +13412,7 @@
       <c r="B696" t="inlineStr"/>
       <c r="C696" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D696" t="n">
@@ -13468,7 +13468,7 @@
       <c r="B699" t="inlineStr"/>
       <c r="C699" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D699" t="n">
@@ -13524,7 +13524,7 @@
       <c r="B702" t="inlineStr"/>
       <c r="C702" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D702" t="n">
@@ -13580,7 +13580,7 @@
       <c r="B705" t="inlineStr"/>
       <c r="C705" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D705" t="n">
@@ -13636,7 +13636,7 @@
       <c r="B708" t="inlineStr"/>
       <c r="C708" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D708" t="n">
@@ -13692,7 +13692,7 @@
       <c r="B711" t="inlineStr"/>
       <c r="C711" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D711" t="n">
@@ -13748,7 +13748,7 @@
       <c r="B714" t="inlineStr"/>
       <c r="C714" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D714" t="n">
@@ -13804,7 +13804,7 @@
       <c r="B717" t="inlineStr"/>
       <c r="C717" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D717" t="n">
@@ -13860,7 +13860,7 @@
       <c r="B720" t="inlineStr"/>
       <c r="C720" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D720" t="n">
@@ -13916,7 +13916,7 @@
       <c r="B723" t="inlineStr"/>
       <c r="C723" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D723" t="n">
@@ -13972,7 +13972,7 @@
       <c r="B726" t="inlineStr"/>
       <c r="C726" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D726" t="n">
@@ -14028,7 +14028,7 @@
       <c r="B729" t="inlineStr"/>
       <c r="C729" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D729" t="n">
@@ -14084,7 +14084,7 @@
       <c r="B732" t="inlineStr"/>
       <c r="C732" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D732" t="n">
@@ -14140,7 +14140,7 @@
       <c r="B735" t="inlineStr"/>
       <c r="C735" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D735" t="n">
@@ -14196,7 +14196,7 @@
       <c r="B738" t="inlineStr"/>
       <c r="C738" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D738" t="n">
@@ -14252,7 +14252,7 @@
       <c r="B741" t="inlineStr"/>
       <c r="C741" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D741" t="n">
@@ -14308,7 +14308,7 @@
       <c r="B744" t="inlineStr"/>
       <c r="C744" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D744" t="n">
@@ -14364,7 +14364,7 @@
       <c r="B747" t="inlineStr"/>
       <c r="C747" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D747" t="n">
@@ -14420,7 +14420,7 @@
       <c r="B750" t="inlineStr"/>
       <c r="C750" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D750" t="n">
@@ -14476,7 +14476,7 @@
       <c r="B753" t="inlineStr"/>
       <c r="C753" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D753" t="n">
@@ -14532,7 +14532,7 @@
       <c r="B756" t="inlineStr"/>
       <c r="C756" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D756" t="n">
@@ -14584,7 +14584,7 @@
       <c r="B759" t="inlineStr"/>
       <c r="C759" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D759" t="n">
@@ -14640,7 +14640,7 @@
       <c r="B762" t="inlineStr"/>
       <c r="C762" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D762" t="n">
@@ -14696,7 +14696,7 @@
       <c r="B765" t="inlineStr"/>
       <c r="C765" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D765" t="n">
@@ -14752,7 +14752,7 @@
       <c r="B768" t="inlineStr"/>
       <c r="C768" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D768" t="n">
@@ -14808,7 +14808,7 @@
       <c r="B771" t="inlineStr"/>
       <c r="C771" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D771" t="n">
@@ -14860,7 +14860,7 @@
       <c r="B774" t="inlineStr"/>
       <c r="C774" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D774" t="n">
@@ -14916,7 +14916,7 @@
       <c r="B777" t="inlineStr"/>
       <c r="C777" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D777" t="n">
@@ -14972,7 +14972,7 @@
       <c r="B780" t="inlineStr"/>
       <c r="C780" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D780" t="n">
@@ -15028,7 +15028,7 @@
       <c r="B783" t="inlineStr"/>
       <c r="C783" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D783" t="n">
@@ -15084,7 +15084,7 @@
       <c r="B786" t="inlineStr"/>
       <c r="C786" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D786" t="n">
@@ -15140,7 +15140,7 @@
       <c r="B789" t="inlineStr"/>
       <c r="C789" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D789" t="n">
@@ -15196,7 +15196,7 @@
       <c r="B792" t="inlineStr"/>
       <c r="C792" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D792" t="n">
@@ -15252,7 +15252,7 @@
       <c r="B795" t="inlineStr"/>
       <c r="C795" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D795" t="n">
@@ -15308,7 +15308,7 @@
       <c r="B798" t="inlineStr"/>
       <c r="C798" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D798" t="n">
@@ -15364,7 +15364,7 @@
       <c r="B801" t="inlineStr"/>
       <c r="C801" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D801" t="n">
@@ -15420,7 +15420,7 @@
       <c r="B804" t="inlineStr"/>
       <c r="C804" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D804" t="n">
@@ -15476,7 +15476,7 @@
       <c r="B807" t="inlineStr"/>
       <c r="C807" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D807" t="n">
@@ -15532,7 +15532,7 @@
       <c r="B810" t="inlineStr"/>
       <c r="C810" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D810" t="n">
@@ -15588,7 +15588,7 @@
       <c r="B813" t="inlineStr"/>
       <c r="C813" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D813" t="n">
@@ -15644,7 +15644,7 @@
       <c r="B816" t="inlineStr"/>
       <c r="C816" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D816" t="n">
@@ -15700,7 +15700,7 @@
       <c r="B819" t="inlineStr"/>
       <c r="C819" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D819" t="n">
@@ -15756,7 +15756,7 @@
       <c r="B822" t="inlineStr"/>
       <c r="C822" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D822" t="n">
@@ -15812,7 +15812,7 @@
       <c r="B825" t="inlineStr"/>
       <c r="C825" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D825" t="n">
@@ -15868,7 +15868,7 @@
       <c r="B828" t="inlineStr"/>
       <c r="C828" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D828" t="n">
@@ -15924,7 +15924,7 @@
       <c r="B831" t="inlineStr"/>
       <c r="C831" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D831" t="n">
@@ -15980,7 +15980,7 @@
       <c r="B834" t="inlineStr"/>
       <c r="C834" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D834" t="n">
@@ -16036,7 +16036,7 @@
       <c r="B837" t="inlineStr"/>
       <c r="C837" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D837" t="n">
@@ -16092,7 +16092,7 @@
       <c r="B840" t="inlineStr"/>
       <c r="C840" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D840" t="n">
@@ -16148,7 +16148,7 @@
       <c r="B843" t="inlineStr"/>
       <c r="C843" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D843" t="n">
@@ -16204,7 +16204,7 @@
       <c r="B846" t="inlineStr"/>
       <c r="C846" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D846" t="n">
@@ -16260,7 +16260,7 @@
       <c r="B849" t="inlineStr"/>
       <c r="C849" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D849" t="n">
@@ -16316,7 +16316,7 @@
       <c r="B852" t="inlineStr"/>
       <c r="C852" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D852" t="n">
@@ -16372,7 +16372,7 @@
       <c r="B855" t="inlineStr"/>
       <c r="C855" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D855" t="n">
@@ -16428,7 +16428,7 @@
       <c r="B858" t="inlineStr"/>
       <c r="C858" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D858" t="n">
@@ -16484,7 +16484,7 @@
       <c r="B861" t="inlineStr"/>
       <c r="C861" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D861" t="n">
@@ -16540,7 +16540,7 @@
       <c r="B864" t="inlineStr"/>
       <c r="C864" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D864" t="n">
@@ -16596,7 +16596,7 @@
       <c r="B867" t="inlineStr"/>
       <c r="C867" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D867" t="n">
@@ -16652,7 +16652,7 @@
       <c r="B870" t="inlineStr"/>
       <c r="C870" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D870" t="n">
@@ -16708,7 +16708,7 @@
       <c r="B873" t="inlineStr"/>
       <c r="C873" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D873" t="n">
@@ -16764,7 +16764,7 @@
       <c r="B876" t="inlineStr"/>
       <c r="C876" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D876" t="n">
@@ -16820,7 +16820,7 @@
       <c r="B879" t="inlineStr"/>
       <c r="C879" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D879" t="n">
@@ -16876,7 +16876,7 @@
       <c r="B882" t="inlineStr"/>
       <c r="C882" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D882" t="n">
@@ -16932,7 +16932,7 @@
       <c r="B885" t="inlineStr"/>
       <c r="C885" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D885" t="n">
@@ -16988,7 +16988,7 @@
       <c r="B888" t="inlineStr"/>
       <c r="C888" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D888" t="n">
@@ -17044,7 +17044,7 @@
       <c r="B891" t="inlineStr"/>
       <c r="C891" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D891" t="n">
@@ -17100,7 +17100,7 @@
       <c r="B894" t="inlineStr"/>
       <c r="C894" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D894" t="n">
@@ -17156,7 +17156,7 @@
       <c r="B897" t="inlineStr"/>
       <c r="C897" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D897" t="n">
@@ -17212,7 +17212,7 @@
       <c r="B900" t="inlineStr"/>
       <c r="C900" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D900" t="n">
@@ -17268,7 +17268,7 @@
       <c r="B903" t="inlineStr"/>
       <c r="C903" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D903" t="n">
@@ -17324,7 +17324,7 @@
       <c r="B906" t="inlineStr"/>
       <c r="C906" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D906" t="n">
@@ -17380,7 +17380,7 @@
       <c r="B909" t="inlineStr"/>
       <c r="C909" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D909" t="n">
@@ -17436,7 +17436,7 @@
       <c r="B912" t="inlineStr"/>
       <c r="C912" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D912" t="n">
@@ -17492,7 +17492,7 @@
       <c r="B915" t="inlineStr"/>
       <c r="C915" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D915" t="n">
@@ -17548,7 +17548,7 @@
       <c r="B918" t="inlineStr"/>
       <c r="C918" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D918" t="n">
@@ -17604,7 +17604,7 @@
       <c r="B921" t="inlineStr"/>
       <c r="C921" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D921" t="n">
@@ -17660,7 +17660,7 @@
       <c r="B924" t="inlineStr"/>
       <c r="C924" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D924" t="n">
@@ -17716,7 +17716,7 @@
       <c r="B927" t="inlineStr"/>
       <c r="C927" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D927" t="n">
@@ -17772,7 +17772,7 @@
       <c r="B930" t="inlineStr"/>
       <c r="C930" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D930" t="n">
@@ -17828,7 +17828,7 @@
       <c r="B933" t="inlineStr"/>
       <c r="C933" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D933" t="n">
@@ -17884,7 +17884,7 @@
       <c r="B936" t="inlineStr"/>
       <c r="C936" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D936" t="n">
@@ -17940,7 +17940,7 @@
       <c r="B939" t="inlineStr"/>
       <c r="C939" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D939" t="n">
@@ -17996,7 +17996,7 @@
       <c r="B942" t="inlineStr"/>
       <c r="C942" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D942" t="n">
@@ -18052,7 +18052,7 @@
       <c r="B945" t="inlineStr"/>
       <c r="C945" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D945" t="n">
@@ -18108,7 +18108,7 @@
       <c r="B948" t="inlineStr"/>
       <c r="C948" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D948" t="n">
@@ -18164,7 +18164,7 @@
       <c r="B951" t="inlineStr"/>
       <c r="C951" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D951" t="n">
@@ -18220,7 +18220,7 @@
       <c r="B954" t="inlineStr"/>
       <c r="C954" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D954" t="n">
@@ -18276,7 +18276,7 @@
       <c r="B957" t="inlineStr"/>
       <c r="C957" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D957" t="n">
@@ -18332,7 +18332,7 @@
       <c r="B960" t="inlineStr"/>
       <c r="C960" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D960" t="n">
@@ -18388,7 +18388,7 @@
       <c r="B963" t="inlineStr"/>
       <c r="C963" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D963" t="n">
@@ -18444,7 +18444,7 @@
       <c r="B966" t="inlineStr"/>
       <c r="C966" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D966" t="n">
@@ -18500,7 +18500,7 @@
       <c r="B969" t="inlineStr"/>
       <c r="C969" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D969" t="n">
@@ -18556,7 +18556,7 @@
       <c r="B972" t="inlineStr"/>
       <c r="C972" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D972" t="n">
@@ -18612,7 +18612,7 @@
       <c r="B975" t="inlineStr"/>
       <c r="C975" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D975" t="n">
@@ -18668,7 +18668,7 @@
       <c r="B978" t="inlineStr"/>
       <c r="C978" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D978" t="n">
@@ -18724,7 +18724,7 @@
       <c r="B981" t="inlineStr"/>
       <c r="C981" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D981" t="n">
@@ -18780,7 +18780,7 @@
       <c r="B984" t="inlineStr"/>
       <c r="C984" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D984" t="n">
@@ -18836,7 +18836,7 @@
       <c r="B987" t="inlineStr"/>
       <c r="C987" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D987" t="n">
@@ -18892,7 +18892,7 @@
       <c r="B990" t="inlineStr"/>
       <c r="C990" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D990" t="n">
@@ -18948,7 +18948,7 @@
       <c r="B993" t="inlineStr"/>
       <c r="C993" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D993" t="n">
@@ -19004,7 +19004,7 @@
       <c r="B996" t="inlineStr"/>
       <c r="C996" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D996" t="n">
@@ -19060,7 +19060,7 @@
       <c r="B999" t="inlineStr"/>
       <c r="C999" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D999" t="n">
@@ -19116,7 +19116,7 @@
       <c r="B1002" t="inlineStr"/>
       <c r="C1002" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1002" t="n">
@@ -19172,7 +19172,7 @@
       <c r="B1005" t="inlineStr"/>
       <c r="C1005" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1005" t="n">
@@ -19228,7 +19228,7 @@
       <c r="B1008" t="inlineStr"/>
       <c r="C1008" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1008" t="n">
@@ -19284,7 +19284,7 @@
       <c r="B1011" t="inlineStr"/>
       <c r="C1011" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1011" t="n">
@@ -19340,7 +19340,7 @@
       <c r="B1014" t="inlineStr"/>
       <c r="C1014" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1014" t="n">
@@ -19396,7 +19396,7 @@
       <c r="B1017" t="inlineStr"/>
       <c r="C1017" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1017" t="n">
@@ -19452,7 +19452,7 @@
       <c r="B1020" t="inlineStr"/>
       <c r="C1020" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1020" t="n">
@@ -19508,7 +19508,7 @@
       <c r="B1023" t="inlineStr"/>
       <c r="C1023" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1023" t="n">
@@ -19564,7 +19564,7 @@
       <c r="B1026" t="inlineStr"/>
       <c r="C1026" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1026" t="n">
@@ -19620,7 +19620,7 @@
       <c r="B1029" t="inlineStr"/>
       <c r="C1029" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1029" t="n">
@@ -19676,7 +19676,7 @@
       <c r="B1032" t="inlineStr"/>
       <c r="C1032" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1032" t="n">
@@ -19732,7 +19732,7 @@
       <c r="B1035" t="inlineStr"/>
       <c r="C1035" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1035" t="n">
@@ -19788,7 +19788,7 @@
       <c r="B1038" t="inlineStr"/>
       <c r="C1038" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1038" t="n">
@@ -19844,7 +19844,7 @@
       <c r="B1041" t="inlineStr"/>
       <c r="C1041" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1041" t="n">
@@ -19900,7 +19900,7 @@
       <c r="B1044" t="inlineStr"/>
       <c r="C1044" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1044" t="n">
@@ -19956,7 +19956,7 @@
       <c r="B1047" t="inlineStr"/>
       <c r="C1047" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1047" t="n">
@@ -20012,7 +20012,7 @@
       <c r="B1050" t="inlineStr"/>
       <c r="C1050" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1050" t="n">
@@ -20068,7 +20068,7 @@
       <c r="B1053" t="inlineStr"/>
       <c r="C1053" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1053" t="n">
@@ -20124,7 +20124,7 @@
       <c r="B1056" t="inlineStr"/>
       <c r="C1056" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1056" t="n">
@@ -20180,7 +20180,7 @@
       <c r="B1059" t="inlineStr"/>
       <c r="C1059" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1059" t="n">
@@ -20236,7 +20236,7 @@
       <c r="B1062" t="inlineStr"/>
       <c r="C1062" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1062" t="n">
@@ -20292,7 +20292,7 @@
       <c r="B1065" t="inlineStr"/>
       <c r="C1065" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1065" t="n">
@@ -20348,7 +20348,7 @@
       <c r="B1068" t="inlineStr"/>
       <c r="C1068" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1068" t="n">
@@ -20404,7 +20404,7 @@
       <c r="B1071" t="inlineStr"/>
       <c r="C1071" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1071" t="n">
@@ -20460,7 +20460,7 @@
       <c r="B1074" t="inlineStr"/>
       <c r="C1074" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1074" t="n">
@@ -20516,7 +20516,7 @@
       <c r="B1077" t="inlineStr"/>
       <c r="C1077" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1077" t="n">
@@ -20572,7 +20572,7 @@
       <c r="B1080" t="inlineStr"/>
       <c r="C1080" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1080" t="n">
@@ -20628,7 +20628,7 @@
       <c r="B1083" t="inlineStr"/>
       <c r="C1083" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1083" t="n">
@@ -20684,7 +20684,7 @@
       <c r="B1086" t="inlineStr"/>
       <c r="C1086" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1086" t="n">
@@ -20740,7 +20740,7 @@
       <c r="B1089" t="inlineStr"/>
       <c r="C1089" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1089" t="n">
@@ -20796,7 +20796,7 @@
       <c r="B1092" t="inlineStr"/>
       <c r="C1092" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1092" t="n">
@@ -20852,7 +20852,7 @@
       <c r="B1095" t="inlineStr"/>
       <c r="C1095" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1095" t="n">
@@ -20908,7 +20908,7 @@
       <c r="B1098" t="inlineStr"/>
       <c r="C1098" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1098" t="n">
@@ -20964,7 +20964,7 @@
       <c r="B1101" t="inlineStr"/>
       <c r="C1101" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1101" t="n">
@@ -21020,7 +21020,7 @@
       <c r="B1104" t="inlineStr"/>
       <c r="C1104" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1104" t="n">
@@ -21076,7 +21076,7 @@
       <c r="B1107" t="inlineStr"/>
       <c r="C1107" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1107" t="n">
@@ -21132,7 +21132,7 @@
       <c r="B1110" t="inlineStr"/>
       <c r="C1110" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1110" t="n">
@@ -21188,7 +21188,7 @@
       <c r="B1113" t="inlineStr"/>
       <c r="C1113" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1113" t="n">
@@ -21244,7 +21244,7 @@
       <c r="B1116" t="inlineStr"/>
       <c r="C1116" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1116" t="n">
@@ -21300,7 +21300,7 @@
       <c r="B1119" t="inlineStr"/>
       <c r="C1119" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1119" t="n">
@@ -21356,7 +21356,7 @@
       <c r="B1122" t="inlineStr"/>
       <c r="C1122" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1122" t="n">
@@ -21412,7 +21412,7 @@
       <c r="B1125" t="inlineStr"/>
       <c r="C1125" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1125" t="n">
@@ -21468,7 +21468,7 @@
       <c r="B1128" t="inlineStr"/>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1128" t="n">
@@ -21524,7 +21524,7 @@
       <c r="B1131" t="inlineStr"/>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1131" t="n">
@@ -21580,7 +21580,7 @@
       <c r="B1134" t="inlineStr"/>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1134" t="n">
@@ -21636,7 +21636,7 @@
       <c r="B1137" t="inlineStr"/>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1137" t="n">
@@ -21692,7 +21692,7 @@
       <c r="B1140" t="inlineStr"/>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1140" t="n">
@@ -21748,7 +21748,7 @@
       <c r="B1143" t="inlineStr"/>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1143" t="n">
@@ -21804,7 +21804,7 @@
       <c r="B1146" t="inlineStr"/>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1146" t="n">
@@ -21860,7 +21860,7 @@
       <c r="B1149" t="inlineStr"/>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1149" t="n">
@@ -21916,7 +21916,7 @@
       <c r="B1152" t="inlineStr"/>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1152" t="n">
@@ -21972,7 +21972,7 @@
       <c r="B1155" t="inlineStr"/>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1155" t="n">
@@ -22028,7 +22028,7 @@
       <c r="B1158" t="inlineStr"/>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1158" t="n">
@@ -22084,7 +22084,7 @@
       <c r="B1161" t="inlineStr"/>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1161" t="n">
@@ -22140,7 +22140,7 @@
       <c r="B1164" t="inlineStr"/>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1164" t="n">
@@ -22196,7 +22196,7 @@
       <c r="B1167" t="inlineStr"/>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1167" t="n">
@@ -22252,7 +22252,7 @@
       <c r="B1170" t="inlineStr"/>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1170" t="n">
@@ -22308,7 +22308,7 @@
       <c r="B1173" t="inlineStr"/>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1173" t="n">
@@ -22364,7 +22364,7 @@
       <c r="B1176" t="inlineStr"/>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1176" t="n">
@@ -22420,7 +22420,7 @@
       <c r="B1179" t="inlineStr"/>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1179" t="n">
@@ -22476,7 +22476,7 @@
       <c r="B1182" t="inlineStr"/>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1182" t="n">
@@ -22532,7 +22532,7 @@
       <c r="B1185" t="inlineStr"/>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1185" t="n">
@@ -22588,7 +22588,7 @@
       <c r="B1188" t="inlineStr"/>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1188" t="n">
@@ -22644,7 +22644,7 @@
       <c r="B1191" t="inlineStr"/>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1191" t="n">
@@ -22700,7 +22700,7 @@
       <c r="B1194" t="inlineStr"/>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1194" t="n">
@@ -22756,7 +22756,7 @@
       <c r="B1197" t="inlineStr"/>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1197" t="n">
@@ -22812,7 +22812,7 @@
       <c r="B1200" t="inlineStr"/>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1200" t="n">
@@ -22868,7 +22868,7 @@
       <c r="B1203" t="inlineStr"/>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1203" t="n">
@@ -22924,7 +22924,7 @@
       <c r="B1206" t="inlineStr"/>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1206" t="n">
@@ -22980,7 +22980,7 @@
       <c r="B1209" t="inlineStr"/>
       <c r="C1209" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1209" t="n">
@@ -23036,7 +23036,7 @@
       <c r="B1212" t="inlineStr"/>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1212" t="n">
@@ -23092,7 +23092,7 @@
       <c r="B1215" t="inlineStr"/>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1215" t="n">
@@ -23148,7 +23148,7 @@
       <c r="B1218" t="inlineStr"/>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1218" t="n">
@@ -23204,7 +23204,7 @@
       <c r="B1221" t="inlineStr"/>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1221" t="n">
@@ -23260,7 +23260,7 @@
       <c r="B1224" t="inlineStr"/>
       <c r="C1224" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1224" t="n">
@@ -23316,7 +23316,7 @@
       <c r="B1227" t="inlineStr"/>
       <c r="C1227" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1227" t="n">
@@ -23372,7 +23372,7 @@
       <c r="B1230" t="inlineStr"/>
       <c r="C1230" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1230" t="n">
@@ -23428,7 +23428,7 @@
       <c r="B1233" t="inlineStr"/>
       <c r="C1233" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1233" t="n">
@@ -23484,7 +23484,7 @@
       <c r="B1236" t="inlineStr"/>
       <c r="C1236" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1236" t="n">
@@ -23540,7 +23540,7 @@
       <c r="B1239" t="inlineStr"/>
       <c r="C1239" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1239" t="n">
@@ -23596,7 +23596,7 @@
       <c r="B1242" t="inlineStr"/>
       <c r="C1242" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1242" t="n">
@@ -23652,7 +23652,7 @@
       <c r="B1245" t="inlineStr"/>
       <c r="C1245" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1245" t="n">
@@ -23708,7 +23708,7 @@
       <c r="B1248" t="inlineStr"/>
       <c r="C1248" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1248" t="n">
@@ -23764,7 +23764,7 @@
       <c r="B1251" t="inlineStr"/>
       <c r="C1251" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1251" t="n">
@@ -23820,7 +23820,7 @@
       <c r="B1254" t="inlineStr"/>
       <c r="C1254" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1254" t="n">
@@ -23876,7 +23876,7 @@
       <c r="B1257" t="inlineStr"/>
       <c r="C1257" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1257" t="n">
@@ -23932,7 +23932,7 @@
       <c r="B1260" t="inlineStr"/>
       <c r="C1260" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1260" t="n">
@@ -23988,7 +23988,7 @@
       <c r="B1263" t="inlineStr"/>
       <c r="C1263" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1263" t="n">
@@ -24044,7 +24044,7 @@
       <c r="B1266" t="inlineStr"/>
       <c r="C1266" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1266" t="n">
@@ -24100,7 +24100,7 @@
       <c r="B1269" t="inlineStr"/>
       <c r="C1269" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1269" t="n">
@@ -24156,7 +24156,7 @@
       <c r="B1272" t="inlineStr"/>
       <c r="C1272" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1272" t="n">
@@ -24212,7 +24212,7 @@
       <c r="B1275" t="inlineStr"/>
       <c r="C1275" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1275" t="n">
@@ -24268,7 +24268,7 @@
       <c r="B1278" t="inlineStr"/>
       <c r="C1278" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1278" t="n">
@@ -24324,7 +24324,7 @@
       <c r="B1281" t="inlineStr"/>
       <c r="C1281" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1281" t="n">
@@ -24380,7 +24380,7 @@
       <c r="B1284" t="inlineStr"/>
       <c r="C1284" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1284" t="n">
@@ -24436,7 +24436,7 @@
       <c r="B1287" t="inlineStr"/>
       <c r="C1287" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1287" t="n">
@@ -24492,7 +24492,7 @@
       <c r="B1290" t="inlineStr"/>
       <c r="C1290" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1290" t="n">
@@ -24548,7 +24548,7 @@
       <c r="B1293" t="inlineStr"/>
       <c r="C1293" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1293" t="n">
@@ -24604,7 +24604,7 @@
       <c r="B1296" t="inlineStr"/>
       <c r="C1296" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1296" t="n">
@@ -24660,7 +24660,7 @@
       <c r="B1299" t="inlineStr"/>
       <c r="C1299" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1299" t="n">
@@ -24716,7 +24716,7 @@
       <c r="B1302" t="inlineStr"/>
       <c r="C1302" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1302" t="n">
@@ -24772,7 +24772,7 @@
       <c r="B1305" t="inlineStr"/>
       <c r="C1305" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1305" t="n">
@@ -24828,7 +24828,7 @@
       <c r="B1308" t="inlineStr"/>
       <c r="C1308" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1308" t="n">
@@ -24884,7 +24884,7 @@
       <c r="B1311" t="inlineStr"/>
       <c r="C1311" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1311" t="n">
@@ -24940,7 +24940,7 @@
       <c r="B1314" t="inlineStr"/>
       <c r="C1314" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1314" t="n">
@@ -24996,7 +24996,7 @@
       <c r="B1317" t="inlineStr"/>
       <c r="C1317" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1317" t="n">
@@ -25052,7 +25052,7 @@
       <c r="B1320" t="inlineStr"/>
       <c r="C1320" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1320" t="n">
@@ -25108,7 +25108,7 @@
       <c r="B1323" t="inlineStr"/>
       <c r="C1323" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1323" t="n">
@@ -25164,7 +25164,7 @@
       <c r="B1326" t="inlineStr"/>
       <c r="C1326" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1326" t="n">
@@ -25220,7 +25220,7 @@
       <c r="B1329" t="inlineStr"/>
       <c r="C1329" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1329" t="n">
@@ -25276,7 +25276,7 @@
       <c r="B1332" t="inlineStr"/>
       <c r="C1332" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1332" t="n">
@@ -25332,7 +25332,7 @@
       <c r="B1335" t="inlineStr"/>
       <c r="C1335" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1335" t="n">
@@ -25388,7 +25388,7 @@
       <c r="B1338" t="inlineStr"/>
       <c r="C1338" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1338" t="n">
@@ -25444,7 +25444,7 @@
       <c r="B1341" t="inlineStr"/>
       <c r="C1341" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1341" t="n">
@@ -25500,7 +25500,7 @@
       <c r="B1344" t="inlineStr"/>
       <c r="C1344" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1344" t="n">
@@ -25556,7 +25556,7 @@
       <c r="B1347" t="inlineStr"/>
       <c r="C1347" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1347" t="n">
@@ -25612,7 +25612,7 @@
       <c r="B1350" t="inlineStr"/>
       <c r="C1350" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1350" t="n">
@@ -25668,7 +25668,7 @@
       <c r="B1353" t="inlineStr"/>
       <c r="C1353" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1353" t="n">
@@ -25724,7 +25724,7 @@
       <c r="B1356" t="inlineStr"/>
       <c r="C1356" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1356" t="n">
@@ -25780,7 +25780,7 @@
       <c r="B1359" t="inlineStr"/>
       <c r="C1359" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1359" t="n">
@@ -25836,7 +25836,7 @@
       <c r="B1362" t="inlineStr"/>
       <c r="C1362" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1362" t="n">
@@ -25892,7 +25892,7 @@
       <c r="B1365" t="inlineStr"/>
       <c r="C1365" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1365" t="n">
@@ -25948,7 +25948,7 @@
       <c r="B1368" t="inlineStr"/>
       <c r="C1368" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1368" t="n">
@@ -26004,7 +26004,7 @@
       <c r="B1371" t="inlineStr"/>
       <c r="C1371" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1371" t="n">
@@ -26060,7 +26060,7 @@
       <c r="B1374" t="inlineStr"/>
       <c r="C1374" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1374" t="n">
@@ -26116,7 +26116,7 @@
       <c r="B1377" t="inlineStr"/>
       <c r="C1377" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1377" t="n">
@@ -26172,7 +26172,7 @@
       <c r="B1380" t="inlineStr"/>
       <c r="C1380" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1380" t="n">
@@ -26228,7 +26228,7 @@
       <c r="B1383" t="inlineStr"/>
       <c r="C1383" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1383" t="n">
@@ -26284,7 +26284,7 @@
       <c r="B1386" t="inlineStr"/>
       <c r="C1386" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1386" t="n">
@@ -26340,7 +26340,7 @@
       <c r="B1389" t="inlineStr"/>
       <c r="C1389" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1389" t="n">
@@ -26396,7 +26396,7 @@
       <c r="B1392" t="inlineStr"/>
       <c r="C1392" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1392" t="n">
@@ -26452,7 +26452,7 @@
       <c r="B1395" t="inlineStr"/>
       <c r="C1395" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1395" t="n">
@@ -26508,7 +26508,7 @@
       <c r="B1398" t="inlineStr"/>
       <c r="C1398" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1398" t="n">
@@ -26564,7 +26564,7 @@
       <c r="B1401" t="inlineStr"/>
       <c r="C1401" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1401" t="n">
@@ -26620,7 +26620,7 @@
       <c r="B1404" t="inlineStr"/>
       <c r="C1404" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1404" t="n">
@@ -26676,7 +26676,7 @@
       <c r="B1407" t="inlineStr"/>
       <c r="C1407" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1407" t="n">
@@ -26732,7 +26732,7 @@
       <c r="B1410" t="inlineStr"/>
       <c r="C1410" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1410" t="n">
@@ -26788,7 +26788,7 @@
       <c r="B1413" t="inlineStr"/>
       <c r="C1413" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1413" t="n">
@@ -26844,7 +26844,7 @@
       <c r="B1416" t="inlineStr"/>
       <c r="C1416" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1416" t="n">
@@ -26900,7 +26900,7 @@
       <c r="B1419" t="inlineStr"/>
       <c r="C1419" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1419" t="n">
@@ -26956,7 +26956,7 @@
       <c r="B1422" t="inlineStr"/>
       <c r="C1422" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1422" t="n">
@@ -27012,7 +27012,7 @@
       <c r="B1425" t="inlineStr"/>
       <c r="C1425" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1425" t="n">
@@ -27068,7 +27068,7 @@
       <c r="B1428" t="inlineStr"/>
       <c r="C1428" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1428" t="n">
@@ -27124,7 +27124,7 @@
       <c r="B1431" t="inlineStr"/>
       <c r="C1431" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1431" t="n">
@@ -27180,7 +27180,7 @@
       <c r="B1434" t="inlineStr"/>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1434" t="n">
@@ -27236,7 +27236,7 @@
       <c r="B1437" t="inlineStr"/>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1437" t="n">
@@ -27292,7 +27292,7 @@
       <c r="B1440" t="inlineStr"/>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1440" t="n">
@@ -27348,7 +27348,7 @@
       <c r="B1443" t="inlineStr"/>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1443" t="n">
@@ -27404,7 +27404,7 @@
       <c r="B1446" t="inlineStr"/>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1446" t="n">
@@ -27460,7 +27460,7 @@
       <c r="B1449" t="inlineStr"/>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1449" t="n">
@@ -27516,7 +27516,7 @@
       <c r="B1452" t="inlineStr"/>
       <c r="C1452" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1452" t="n">
@@ -27572,7 +27572,7 @@
       <c r="B1455" t="inlineStr"/>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1455" t="n">
@@ -27628,7 +27628,7 @@
       <c r="B1458" t="inlineStr"/>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1458" t="n">
@@ -27684,7 +27684,7 @@
       <c r="B1461" t="inlineStr"/>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1461" t="n">
@@ -27740,7 +27740,7 @@
       <c r="B1464" t="inlineStr"/>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1464" t="n">
@@ -27796,7 +27796,7 @@
       <c r="B1467" t="inlineStr"/>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1467" t="n">
@@ -27852,7 +27852,7 @@
       <c r="B1470" t="inlineStr"/>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1470" t="n">
@@ -27908,7 +27908,7 @@
       <c r="B1473" t="inlineStr"/>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1473" t="n">
@@ -27964,7 +27964,7 @@
       <c r="B1476" t="inlineStr"/>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1476" t="n">
@@ -28020,7 +28020,7 @@
       <c r="B1479" t="inlineStr"/>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1479" t="n">
@@ -28076,7 +28076,7 @@
       <c r="B1482" t="inlineStr"/>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1482" t="n">
@@ -28132,7 +28132,7 @@
       <c r="B1485" t="inlineStr"/>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1485" t="n">
@@ -28188,7 +28188,7 @@
       <c r="B1488" t="inlineStr"/>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1488" t="n">
@@ -28244,7 +28244,7 @@
       <c r="B1491" t="inlineStr"/>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1491" t="n">
@@ -28300,7 +28300,7 @@
       <c r="B1494" t="inlineStr"/>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1494" t="n">
@@ -28356,7 +28356,7 @@
       <c r="B1497" t="inlineStr"/>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1497" t="n">
@@ -28412,7 +28412,7 @@
       <c r="B1500" t="inlineStr"/>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1500" t="n">
@@ -28468,7 +28468,7 @@
       <c r="B1503" t="inlineStr"/>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1503" t="n">
@@ -28524,7 +28524,7 @@
       <c r="B1506" t="inlineStr"/>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1506" t="n">
@@ -28580,7 +28580,7 @@
       <c r="B1509" t="inlineStr"/>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1509" t="n">
@@ -28636,7 +28636,7 @@
       <c r="B1512" t="inlineStr"/>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1512" t="n">
@@ -28692,7 +28692,7 @@
       <c r="B1515" t="inlineStr"/>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1515" t="n">
@@ -28748,7 +28748,7 @@
       <c r="B1518" t="inlineStr"/>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1518" t="n">
@@ -28804,7 +28804,7 @@
       <c r="B1521" t="inlineStr"/>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1521" t="n">
@@ -28860,7 +28860,7 @@
       <c r="B1524" t="inlineStr"/>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1524" t="n">
@@ -28916,7 +28916,7 @@
       <c r="B1527" t="inlineStr"/>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1527" t="n">
@@ -28972,7 +28972,7 @@
       <c r="B1530" t="inlineStr"/>
       <c r="C1530" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1530" t="n">
@@ -29028,7 +29028,7 @@
       <c r="B1533" t="inlineStr"/>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1533" t="n">
@@ -29084,7 +29084,7 @@
       <c r="B1536" t="inlineStr"/>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1536" t="n">
@@ -29140,7 +29140,7 @@
       <c r="B1539" t="inlineStr"/>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1539" t="n">
@@ -29196,7 +29196,7 @@
       <c r="B1542" t="inlineStr"/>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1542" t="n">
@@ -29252,7 +29252,7 @@
       <c r="B1545" t="inlineStr"/>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1545" t="n">
@@ -29308,7 +29308,7 @@
       <c r="B1548" t="inlineStr"/>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1548" t="n">
@@ -29364,7 +29364,7 @@
       <c r="B1551" t="inlineStr"/>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1551" t="n">
@@ -29420,7 +29420,7 @@
       <c r="B1554" t="inlineStr"/>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1554" t="n">
@@ -29476,7 +29476,7 @@
       <c r="B1557" t="inlineStr"/>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1557" t="n">
@@ -29532,7 +29532,7 @@
       <c r="B1560" t="inlineStr"/>
       <c r="C1560" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1560" t="n">
@@ -29588,7 +29588,7 @@
       <c r="B1563" t="inlineStr"/>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1563" t="n">
@@ -29644,7 +29644,7 @@
       <c r="B1566" t="inlineStr"/>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1566" t="n">
@@ -29700,7 +29700,7 @@
       <c r="B1569" t="inlineStr"/>
       <c r="C1569" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1569" t="n">
@@ -29756,7 +29756,7 @@
       <c r="B1572" t="inlineStr"/>
       <c r="C1572" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1572" t="n">
@@ -29812,7 +29812,7 @@
       <c r="B1575" t="inlineStr"/>
       <c r="C1575" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1575" t="n">
@@ -29868,7 +29868,7 @@
       <c r="B1578" t="inlineStr"/>
       <c r="C1578" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1578" t="n">
@@ -29924,7 +29924,7 @@
       <c r="B1581" t="inlineStr"/>
       <c r="C1581" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1581" t="n">
@@ -29980,7 +29980,7 @@
       <c r="B1584" t="inlineStr"/>
       <c r="C1584" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1584" t="n">
@@ -30036,7 +30036,7 @@
       <c r="B1587" t="inlineStr"/>
       <c r="C1587" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1587" t="n">
@@ -30092,7 +30092,7 @@
       <c r="B1590" t="inlineStr"/>
       <c r="C1590" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1590" t="n">
@@ -30148,7 +30148,7 @@
       <c r="B1593" t="inlineStr"/>
       <c r="C1593" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1593" t="n">
@@ -30204,7 +30204,7 @@
       <c r="B1596" t="inlineStr"/>
       <c r="C1596" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1596" t="n">
@@ -30260,7 +30260,7 @@
       <c r="B1599" t="inlineStr"/>
       <c r="C1599" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1599" t="n">
@@ -30316,7 +30316,7 @@
       <c r="B1602" t="inlineStr"/>
       <c r="C1602" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1602" t="n">
@@ -30372,7 +30372,7 @@
       <c r="B1605" t="inlineStr"/>
       <c r="C1605" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1605" t="n">
@@ -30428,7 +30428,7 @@
       <c r="B1608" t="inlineStr"/>
       <c r="C1608" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1608" t="n">
@@ -30484,7 +30484,7 @@
       <c r="B1611" t="inlineStr"/>
       <c r="C1611" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1611" t="n">
@@ -30540,7 +30540,7 @@
       <c r="B1614" t="inlineStr"/>
       <c r="C1614" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1614" t="n">
@@ -30596,7 +30596,7 @@
       <c r="B1617" t="inlineStr"/>
       <c r="C1617" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1617" t="n">
@@ -30652,7 +30652,7 @@
       <c r="B1620" t="inlineStr"/>
       <c r="C1620" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1620" t="n">
@@ -30708,7 +30708,7 @@
       <c r="B1623" t="inlineStr"/>
       <c r="C1623" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1623" t="n">
@@ -30764,7 +30764,7 @@
       <c r="B1626" t="inlineStr"/>
       <c r="C1626" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1626" t="n">
@@ -30820,7 +30820,7 @@
       <c r="B1629" t="inlineStr"/>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1629" t="n">
@@ -30876,7 +30876,7 @@
       <c r="B1632" t="inlineStr"/>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1632" t="n">
@@ -30932,7 +30932,7 @@
       <c r="B1635" t="inlineStr"/>
       <c r="C1635" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1635" t="n">
@@ -30988,7 +30988,7 @@
       <c r="B1638" t="inlineStr"/>
       <c r="C1638" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1638" t="n">
@@ -31044,7 +31044,7 @@
       <c r="B1641" t="inlineStr"/>
       <c r="C1641" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1641" t="n">
@@ -31100,7 +31100,7 @@
       <c r="B1644" t="inlineStr"/>
       <c r="C1644" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1644" t="n">
@@ -31156,7 +31156,7 @@
       <c r="B1647" t="inlineStr"/>
       <c r="C1647" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1647" t="n">
@@ -31212,7 +31212,7 @@
       <c r="B1650" t="inlineStr"/>
       <c r="C1650" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1650" t="n">
@@ -31268,7 +31268,7 @@
       <c r="B1653" t="inlineStr"/>
       <c r="C1653" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1653" t="n">
@@ -31324,7 +31324,7 @@
       <c r="B1656" t="inlineStr"/>
       <c r="C1656" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1656" t="n">
@@ -31380,7 +31380,7 @@
       <c r="B1659" t="inlineStr"/>
       <c r="C1659" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1659" t="n">
@@ -31436,7 +31436,7 @@
       <c r="B1662" t="inlineStr"/>
       <c r="C1662" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1662" t="n">
@@ -31492,7 +31492,7 @@
       <c r="B1665" t="inlineStr"/>
       <c r="C1665" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1665" t="n">
@@ -31548,7 +31548,7 @@
       <c r="B1668" t="inlineStr"/>
       <c r="C1668" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1668" t="n">
@@ -31604,7 +31604,7 @@
       <c r="B1671" t="inlineStr"/>
       <c r="C1671" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1671" t="n">
@@ -31660,7 +31660,7 @@
       <c r="B1674" t="inlineStr"/>
       <c r="C1674" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1674" t="n">
@@ -31716,7 +31716,7 @@
       <c r="B1677" t="inlineStr"/>
       <c r="C1677" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1677" t="n">
@@ -31772,7 +31772,7 @@
       <c r="B1680" t="inlineStr"/>
       <c r="C1680" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1680" t="n">
@@ -31828,7 +31828,7 @@
       <c r="B1683" t="inlineStr"/>
       <c r="C1683" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1683" t="n">
@@ -31884,7 +31884,7 @@
       <c r="B1686" t="inlineStr"/>
       <c r="C1686" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1686" t="n">
@@ -31940,7 +31940,7 @@
       <c r="B1689" t="inlineStr"/>
       <c r="C1689" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1689" t="n">
@@ -31996,7 +31996,7 @@
       <c r="B1692" t="inlineStr"/>
       <c r="C1692" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1692" t="n">
@@ -32052,7 +32052,7 @@
       <c r="B1695" t="inlineStr"/>
       <c r="C1695" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1695" t="n">
@@ -32108,7 +32108,7 @@
       <c r="B1698" t="inlineStr"/>
       <c r="C1698" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1698" t="n">
@@ -32164,7 +32164,7 @@
       <c r="B1701" t="inlineStr"/>
       <c r="C1701" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1701" t="n">
@@ -32220,7 +32220,7 @@
       <c r="B1704" t="inlineStr"/>
       <c r="C1704" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1704" t="n">
@@ -32276,7 +32276,7 @@
       <c r="B1707" t="inlineStr"/>
       <c r="C1707" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1707" t="n">
@@ -32332,7 +32332,7 @@
       <c r="B1710" t="inlineStr"/>
       <c r="C1710" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1710" t="n">
@@ -32388,7 +32388,7 @@
       <c r="B1713" t="inlineStr"/>
       <c r="C1713" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1713" t="n">
@@ -32444,7 +32444,7 @@
       <c r="B1716" t="inlineStr"/>
       <c r="C1716" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1716" t="n">
@@ -32500,7 +32500,7 @@
       <c r="B1719" t="inlineStr"/>
       <c r="C1719" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1719" t="n">
@@ -32556,7 +32556,7 @@
       <c r="B1722" t="inlineStr"/>
       <c r="C1722" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1722" t="n">
@@ -32612,7 +32612,7 @@
       <c r="B1725" t="inlineStr"/>
       <c r="C1725" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1725" t="n">
@@ -32668,7 +32668,7 @@
       <c r="B1728" t="inlineStr"/>
       <c r="C1728" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1728" t="n">
@@ -32724,7 +32724,7 @@
       <c r="B1731" t="inlineStr"/>
       <c r="C1731" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1731" t="n">
@@ -32780,7 +32780,7 @@
       <c r="B1734" t="inlineStr"/>
       <c r="C1734" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1734" t="n">
@@ -32836,7 +32836,7 @@
       <c r="B1737" t="inlineStr"/>
       <c r="C1737" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1737" t="n">
@@ -32892,7 +32892,7 @@
       <c r="B1740" t="inlineStr"/>
       <c r="C1740" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1740" t="n">
@@ -32948,7 +32948,7 @@
       <c r="B1743" t="inlineStr"/>
       <c r="C1743" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1743" t="n">
@@ -33004,7 +33004,7 @@
       <c r="B1746" t="inlineStr"/>
       <c r="C1746" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1746" t="n">
@@ -33060,7 +33060,7 @@
       <c r="B1749" t="inlineStr"/>
       <c r="C1749" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1749" t="n">
@@ -33116,7 +33116,7 @@
       <c r="B1752" t="inlineStr"/>
       <c r="C1752" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1752" t="n">
@@ -33172,7 +33172,7 @@
       <c r="B1755" t="inlineStr"/>
       <c r="C1755" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1755" t="n">
@@ -33228,7 +33228,7 @@
       <c r="B1758" t="inlineStr"/>
       <c r="C1758" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1758" t="n">
@@ -33284,7 +33284,7 @@
       <c r="B1761" t="inlineStr"/>
       <c r="C1761" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1761" t="n">
@@ -33340,7 +33340,7 @@
       <c r="B1764" t="inlineStr"/>
       <c r="C1764" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1764" t="n">
@@ -33396,7 +33396,7 @@
       <c r="B1767" t="inlineStr"/>
       <c r="C1767" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1767" t="n">
@@ -33452,7 +33452,7 @@
       <c r="B1770" t="inlineStr"/>
       <c r="C1770" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1770" t="n">
@@ -33508,7 +33508,7 @@
       <c r="B1773" t="inlineStr"/>
       <c r="C1773" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1773" t="n">
@@ -33564,7 +33564,7 @@
       <c r="B1776" t="inlineStr"/>
       <c r="C1776" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1776" t="n">
@@ -33620,7 +33620,7 @@
       <c r="B1779" t="inlineStr"/>
       <c r="C1779" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1779" t="n">
@@ -33676,7 +33676,7 @@
       <c r="B1782" t="inlineStr"/>
       <c r="C1782" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1782" t="n">
@@ -33732,7 +33732,7 @@
       <c r="B1785" t="inlineStr"/>
       <c r="C1785" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1785" t="n">
@@ -33788,7 +33788,7 @@
       <c r="B1788" t="inlineStr"/>
       <c r="C1788" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1788" t="n">
@@ -33844,7 +33844,7 @@
       <c r="B1791" t="inlineStr"/>
       <c r="C1791" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1791" t="n">
@@ -33900,7 +33900,7 @@
       <c r="B1794" t="inlineStr"/>
       <c r="C1794" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1794" t="n">
@@ -33956,7 +33956,7 @@
       <c r="B1797" t="inlineStr"/>
       <c r="C1797" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1797" t="n">
@@ -34012,7 +34012,7 @@
       <c r="B1800" t="inlineStr"/>
       <c r="C1800" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1800" t="n">
@@ -34068,7 +34068,7 @@
       <c r="B1803" t="inlineStr"/>
       <c r="C1803" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1803" t="n">
@@ -34124,7 +34124,7 @@
       <c r="B1806" t="inlineStr"/>
       <c r="C1806" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1806" t="n">
@@ -34180,7 +34180,7 @@
       <c r="B1809" t="inlineStr"/>
       <c r="C1809" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1809" t="n">
@@ -34236,7 +34236,7 @@
       <c r="B1812" t="inlineStr"/>
       <c r="C1812" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1812" t="n">
@@ -34292,7 +34292,7 @@
       <c r="B1815" t="inlineStr"/>
       <c r="C1815" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1815" t="n">
@@ -34348,7 +34348,7 @@
       <c r="B1818" t="inlineStr"/>
       <c r="C1818" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1818" t="n">
@@ -34404,7 +34404,7 @@
       <c r="B1821" t="inlineStr"/>
       <c r="C1821" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1821" t="n">
@@ -34460,7 +34460,7 @@
       <c r="B1824" t="inlineStr"/>
       <c r="C1824" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1824" t="n">
@@ -34516,7 +34516,7 @@
       <c r="B1827" t="inlineStr"/>
       <c r="C1827" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1827" t="n">
@@ -34572,7 +34572,7 @@
       <c r="B1830" t="inlineStr"/>
       <c r="C1830" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1830" t="n">
@@ -34628,7 +34628,7 @@
       <c r="B1833" t="inlineStr"/>
       <c r="C1833" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1833" t="n">
@@ -34684,7 +34684,7 @@
       <c r="B1836" t="inlineStr"/>
       <c r="C1836" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1836" t="n">
@@ -34740,7 +34740,7 @@
       <c r="B1839" t="inlineStr"/>
       <c r="C1839" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1839" t="n">
@@ -34796,7 +34796,7 @@
       <c r="B1842" t="inlineStr"/>
       <c r="C1842" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1842" t="n">
@@ -34852,7 +34852,7 @@
       <c r="B1845" t="inlineStr"/>
       <c r="C1845" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1845" t="n">
@@ -34908,7 +34908,7 @@
       <c r="B1848" t="inlineStr"/>
       <c r="C1848" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1848" t="n">
@@ -34964,7 +34964,7 @@
       <c r="B1851" t="inlineStr"/>
       <c r="C1851" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1851" t="n">
@@ -35020,7 +35020,7 @@
       <c r="B1854" t="inlineStr"/>
       <c r="C1854" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1854" t="n">
@@ -35076,7 +35076,7 @@
       <c r="B1857" t="inlineStr"/>
       <c r="C1857" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1857" t="n">
@@ -35132,7 +35132,7 @@
       <c r="B1860" t="inlineStr"/>
       <c r="C1860" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1860" t="n">
@@ -35188,7 +35188,7 @@
       <c r="B1863" t="inlineStr"/>
       <c r="C1863" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1863" t="n">
@@ -35244,7 +35244,7 @@
       <c r="B1866" t="inlineStr"/>
       <c r="C1866" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1866" t="n">
@@ -35300,7 +35300,7 @@
       <c r="B1869" t="inlineStr"/>
       <c r="C1869" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1869" t="n">
@@ -35356,7 +35356,7 @@
       <c r="B1872" t="inlineStr"/>
       <c r="C1872" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1872" t="n">
@@ -35412,7 +35412,7 @@
       <c r="B1875" t="inlineStr"/>
       <c r="C1875" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1875" t="n">
@@ -35468,7 +35468,7 @@
       <c r="B1878" t="inlineStr"/>
       <c r="C1878" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1878" t="n">
@@ -35524,7 +35524,7 @@
       <c r="B1881" t="inlineStr"/>
       <c r="C1881" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1881" t="n">
@@ -35580,7 +35580,7 @@
       <c r="B1884" t="inlineStr"/>
       <c r="C1884" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1884" t="n">
@@ -35636,7 +35636,7 @@
       <c r="B1887" t="inlineStr"/>
       <c r="C1887" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1887" t="n">
@@ -35692,7 +35692,7 @@
       <c r="B1890" t="inlineStr"/>
       <c r="C1890" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1890" t="n">
@@ -35748,7 +35748,7 @@
       <c r="B1893" t="inlineStr"/>
       <c r="C1893" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1893" t="n">
@@ -35804,7 +35804,7 @@
       <c r="B1896" t="inlineStr"/>
       <c r="C1896" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1896" t="n">
@@ -35860,7 +35860,7 @@
       <c r="B1899" t="inlineStr"/>
       <c r="C1899" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1899" t="n">
@@ -35916,7 +35916,7 @@
       <c r="B1902" t="inlineStr"/>
       <c r="C1902" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1902" t="n">
@@ -35972,7 +35972,7 @@
       <c r="B1905" t="inlineStr"/>
       <c r="C1905" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1905" t="n">
@@ -36028,7 +36028,7 @@
       <c r="B1908" t="inlineStr"/>
       <c r="C1908" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1908" t="n">
@@ -36084,7 +36084,7 @@
       <c r="B1911" t="inlineStr"/>
       <c r="C1911" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1911" t="n">
@@ -36136,7 +36136,7 @@
       <c r="B1914" t="inlineStr"/>
       <c r="C1914" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1914" t="n">
@@ -36192,7 +36192,7 @@
       <c r="B1917" t="inlineStr"/>
       <c r="C1917" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1917" t="n">
@@ -36248,7 +36248,7 @@
       <c r="B1920" t="inlineStr"/>
       <c r="C1920" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1920" t="n">
@@ -36304,7 +36304,7 @@
       <c r="B1923" t="inlineStr"/>
       <c r="C1923" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1923" t="n">
@@ -36360,7 +36360,7 @@
       <c r="B1926" t="inlineStr"/>
       <c r="C1926" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1926" t="n">
@@ -36416,7 +36416,7 @@
       <c r="B1929" t="inlineStr"/>
       <c r="C1929" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1929" t="n">
@@ -36472,7 +36472,7 @@
       <c r="B1932" t="inlineStr"/>
       <c r="C1932" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1932" t="n">
@@ -36528,7 +36528,7 @@
       <c r="B1935" t="inlineStr"/>
       <c r="C1935" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1935" t="n">
@@ -36584,7 +36584,7 @@
       <c r="B1938" t="inlineStr"/>
       <c r="C1938" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1938" t="n">
@@ -36640,7 +36640,7 @@
       <c r="B1941" t="inlineStr"/>
       <c r="C1941" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1941" t="n">
@@ -36696,7 +36696,7 @@
       <c r="B1944" t="inlineStr"/>
       <c r="C1944" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1944" t="n">
@@ -36752,7 +36752,7 @@
       <c r="B1947" t="inlineStr"/>
       <c r="C1947" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1947" t="n">
@@ -36808,7 +36808,7 @@
       <c r="B1950" t="inlineStr"/>
       <c r="C1950" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1950" t="n">
@@ -36864,7 +36864,7 @@
       <c r="B1953" t="inlineStr"/>
       <c r="C1953" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1953" t="n">
@@ -36920,7 +36920,7 @@
       <c r="B1956" t="inlineStr"/>
       <c r="C1956" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1956" t="n">
@@ -36976,7 +36976,7 @@
       <c r="B1959" t="inlineStr"/>
       <c r="C1959" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1959" t="n">
@@ -37032,7 +37032,7 @@
       <c r="B1962" t="inlineStr"/>
       <c r="C1962" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1962" t="n">
@@ -37088,7 +37088,7 @@
       <c r="B1965" t="inlineStr"/>
       <c r="C1965" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1965" t="n">
@@ -37144,7 +37144,7 @@
       <c r="B1968" t="inlineStr"/>
       <c r="C1968" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1968" t="n">
@@ -37200,7 +37200,7 @@
       <c r="B1971" t="inlineStr"/>
       <c r="C1971" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1971" t="n">
@@ -37256,7 +37256,7 @@
       <c r="B1974" t="inlineStr"/>
       <c r="C1974" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1974" t="n">
@@ -37312,7 +37312,7 @@
       <c r="B1977" t="inlineStr"/>
       <c r="C1977" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1977" t="n">
@@ -37368,7 +37368,7 @@
       <c r="B1980" t="inlineStr"/>
       <c r="C1980" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1980" t="n">
@@ -37424,7 +37424,7 @@
       <c r="B1983" t="inlineStr"/>
       <c r="C1983" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1983" t="n">
@@ -37480,7 +37480,7 @@
       <c r="B1986" t="inlineStr"/>
       <c r="C1986" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1986" t="n">
@@ -37536,7 +37536,7 @@
       <c r="B1989" t="inlineStr"/>
       <c r="C1989" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1989" t="n">
@@ -37592,7 +37592,7 @@
       <c r="B1992" t="inlineStr"/>
       <c r="C1992" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1992" t="n">
@@ -37648,7 +37648,7 @@
       <c r="B1995" t="inlineStr"/>
       <c r="C1995" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1995" t="n">
@@ -37704,7 +37704,7 @@
       <c r="B1998" t="inlineStr"/>
       <c r="C1998" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D1998" t="n">
@@ -37760,7 +37760,7 @@
       <c r="B2001" t="inlineStr"/>
       <c r="C2001" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2001" t="n">
@@ -37816,7 +37816,7 @@
       <c r="B2004" t="inlineStr"/>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2004" t="n">
@@ -37872,7 +37872,7 @@
       <c r="B2007" t="inlineStr"/>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2007" t="n">
@@ -37928,7 +37928,7 @@
       <c r="B2010" t="inlineStr"/>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2010" t="n">
@@ -37984,7 +37984,7 @@
       <c r="B2013" t="inlineStr"/>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2013" t="n">
@@ -38040,7 +38040,7 @@
       <c r="B2016" t="inlineStr"/>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2016" t="n">
@@ -38096,7 +38096,7 @@
       <c r="B2019" t="inlineStr"/>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2019" t="n">
@@ -38152,7 +38152,7 @@
       <c r="B2022" t="inlineStr"/>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2022" t="n">
@@ -38208,7 +38208,7 @@
       <c r="B2025" t="inlineStr"/>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2025" t="n">
@@ -38264,7 +38264,7 @@
       <c r="B2028" t="inlineStr"/>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2028" t="n">
@@ -38320,7 +38320,7 @@
       <c r="B2031" t="inlineStr"/>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2031" t="n">
@@ -38376,7 +38376,7 @@
       <c r="B2034" t="inlineStr"/>
       <c r="C2034" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2034" t="n">
@@ -38432,7 +38432,7 @@
       <c r="B2037" t="inlineStr"/>
       <c r="C2037" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2037" t="n">
@@ -38488,7 +38488,7 @@
       <c r="B2040" t="inlineStr"/>
       <c r="C2040" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2040" t="n">
@@ -38544,7 +38544,7 @@
       <c r="B2043" t="inlineStr"/>
       <c r="C2043" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2043" t="n">
@@ -38600,7 +38600,7 @@
       <c r="B2046" t="inlineStr"/>
       <c r="C2046" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2046" t="n">
@@ -38656,7 +38656,7 @@
       <c r="B2049" t="inlineStr"/>
       <c r="C2049" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2049" t="n">
@@ -38712,7 +38712,7 @@
       <c r="B2052" t="inlineStr"/>
       <c r="C2052" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2052" t="n">
@@ -38768,7 +38768,7 @@
       <c r="B2055" t="inlineStr"/>
       <c r="C2055" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2055" t="n">
@@ -38824,7 +38824,7 @@
       <c r="B2058" t="inlineStr"/>
       <c r="C2058" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2058" t="n">
@@ -38880,7 +38880,7 @@
       <c r="B2061" t="inlineStr"/>
       <c r="C2061" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2061" t="n">
@@ -38936,7 +38936,7 @@
       <c r="B2064" t="inlineStr"/>
       <c r="C2064" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2064" t="n">
@@ -38992,7 +38992,7 @@
       <c r="B2067" t="inlineStr"/>
       <c r="C2067" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2067" t="n">
@@ -39048,7 +39048,7 @@
       <c r="B2070" t="inlineStr"/>
       <c r="C2070" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2070" t="n">
@@ -39104,7 +39104,7 @@
       <c r="B2073" t="inlineStr"/>
       <c r="C2073" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2073" t="n">
@@ -39160,7 +39160,7 @@
       <c r="B2076" t="inlineStr"/>
       <c r="C2076" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2076" t="n">
@@ -39216,7 +39216,7 @@
       <c r="B2079" t="inlineStr"/>
       <c r="C2079" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2079" t="n">
@@ -39272,7 +39272,7 @@
       <c r="B2082" t="inlineStr"/>
       <c r="C2082" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2082" t="n">
@@ -39328,7 +39328,7 @@
       <c r="B2085" t="inlineStr"/>
       <c r="C2085" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2085" t="n">
@@ -39384,7 +39384,7 @@
       <c r="B2088" t="inlineStr"/>
       <c r="C2088" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2088" t="n">
@@ -39440,7 +39440,7 @@
       <c r="B2091" t="inlineStr"/>
       <c r="C2091" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2091" t="n">
@@ -39496,7 +39496,7 @@
       <c r="B2094" t="inlineStr"/>
       <c r="C2094" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2094" t="n">
@@ -39552,7 +39552,7 @@
       <c r="B2097" t="inlineStr"/>
       <c r="C2097" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2097" t="n">
@@ -39608,7 +39608,7 @@
       <c r="B2100" t="inlineStr"/>
       <c r="C2100" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2100" t="n">
@@ -39664,7 +39664,7 @@
       <c r="B2103" t="inlineStr"/>
       <c r="C2103" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2103" t="n">
@@ -39720,7 +39720,7 @@
       <c r="B2106" t="inlineStr"/>
       <c r="C2106" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2106" t="n">
@@ -39776,7 +39776,7 @@
       <c r="B2109" t="inlineStr"/>
       <c r="C2109" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2109" t="n">
@@ -39832,7 +39832,7 @@
       <c r="B2112" t="inlineStr"/>
       <c r="C2112" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2112" t="n">
@@ -39888,7 +39888,7 @@
       <c r="B2115" t="inlineStr"/>
       <c r="C2115" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2115" t="n">
@@ -39944,7 +39944,7 @@
       <c r="B2118" t="inlineStr"/>
       <c r="C2118" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2118" t="n">
@@ -40000,7 +40000,7 @@
       <c r="B2121" t="inlineStr"/>
       <c r="C2121" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2121" t="n">
@@ -40056,7 +40056,7 @@
       <c r="B2124" t="inlineStr"/>
       <c r="C2124" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2124" t="n">
@@ -40112,7 +40112,7 @@
       <c r="B2127" t="inlineStr"/>
       <c r="C2127" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2127" t="n">
@@ -40168,7 +40168,7 @@
       <c r="B2130" t="inlineStr"/>
       <c r="C2130" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2130" t="n">
@@ -40224,7 +40224,7 @@
       <c r="B2133" t="inlineStr"/>
       <c r="C2133" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2133" t="n">
@@ -40280,7 +40280,7 @@
       <c r="B2136" t="inlineStr"/>
       <c r="C2136" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2136" t="n">
@@ -40336,7 +40336,7 @@
       <c r="B2139" t="inlineStr"/>
       <c r="C2139" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2139" t="n">
@@ -40392,7 +40392,7 @@
       <c r="B2142" t="inlineStr"/>
       <c r="C2142" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2142" t="n">
@@ -40448,7 +40448,7 @@
       <c r="B2145" t="inlineStr"/>
       <c r="C2145" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2145" t="n">
@@ -40504,7 +40504,7 @@
       <c r="B2148" t="inlineStr"/>
       <c r="C2148" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2148" t="n">
@@ -40560,7 +40560,7 @@
       <c r="B2151" t="inlineStr"/>
       <c r="C2151" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2151" t="n">
@@ -40616,7 +40616,7 @@
       <c r="B2154" t="inlineStr"/>
       <c r="C2154" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2154" t="n">
@@ -40672,7 +40672,7 @@
       <c r="B2157" t="inlineStr"/>
       <c r="C2157" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2157" t="n">
@@ -40728,7 +40728,7 @@
       <c r="B2160" t="inlineStr"/>
       <c r="C2160" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2160" t="n">
@@ -40784,7 +40784,7 @@
       <c r="B2163" t="inlineStr"/>
       <c r="C2163" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2163" t="n">
@@ -40840,7 +40840,7 @@
       <c r="B2166" t="inlineStr"/>
       <c r="C2166" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2166" t="n">
@@ -40896,7 +40896,7 @@
       <c r="B2169" t="inlineStr"/>
       <c r="C2169" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2169" t="n">
@@ -40952,7 +40952,7 @@
       <c r="B2172" t="inlineStr"/>
       <c r="C2172" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2172" t="n">
@@ -41008,7 +41008,7 @@
       <c r="B2175" t="inlineStr"/>
       <c r="C2175" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2175" t="n">
@@ -41064,7 +41064,7 @@
       <c r="B2178" t="inlineStr"/>
       <c r="C2178" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2178" t="n">
@@ -41120,7 +41120,7 @@
       <c r="B2181" t="inlineStr"/>
       <c r="C2181" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2181" t="n">
@@ -41176,7 +41176,7 @@
       <c r="B2184" t="inlineStr"/>
       <c r="C2184" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2184" t="n">
@@ -41232,7 +41232,7 @@
       <c r="B2187" t="inlineStr"/>
       <c r="C2187" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2187" t="n">
@@ -41288,7 +41288,7 @@
       <c r="B2190" t="inlineStr"/>
       <c r="C2190" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2190" t="n">
@@ -41344,7 +41344,7 @@
       <c r="B2193" t="inlineStr"/>
       <c r="C2193" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2193" t="n">
@@ -41400,7 +41400,7 @@
       <c r="B2196" t="inlineStr"/>
       <c r="C2196" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2196" t="n">
@@ -41456,7 +41456,7 @@
       <c r="B2199" t="inlineStr"/>
       <c r="C2199" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2199" t="n">
@@ -41512,7 +41512,7 @@
       <c r="B2202" t="inlineStr"/>
       <c r="C2202" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2202" t="n">
@@ -41568,7 +41568,7 @@
       <c r="B2205" t="inlineStr"/>
       <c r="C2205" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2205" t="n">
@@ -41624,7 +41624,7 @@
       <c r="B2208" t="inlineStr"/>
       <c r="C2208" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2208" t="n">
@@ -41680,7 +41680,7 @@
       <c r="B2211" t="inlineStr"/>
       <c r="C2211" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2211" t="n">
@@ -41736,7 +41736,7 @@
       <c r="B2214" t="inlineStr"/>
       <c r="C2214" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2214" t="n">
@@ -41792,7 +41792,7 @@
       <c r="B2217" t="inlineStr"/>
       <c r="C2217" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2217" t="n">
@@ -41848,7 +41848,7 @@
       <c r="B2220" t="inlineStr"/>
       <c r="C2220" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2220" t="n">
@@ -41904,7 +41904,7 @@
       <c r="B2223" t="inlineStr"/>
       <c r="C2223" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2223" t="n">
@@ -41960,7 +41960,7 @@
       <c r="B2226" t="inlineStr"/>
       <c r="C2226" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2226" t="n">
@@ -42016,7 +42016,7 @@
       <c r="B2229" t="inlineStr"/>
       <c r="C2229" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2229" t="n">
@@ -42072,7 +42072,7 @@
       <c r="B2232" t="inlineStr"/>
       <c r="C2232" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2232" t="n">
@@ -42128,7 +42128,7 @@
       <c r="B2235" t="inlineStr"/>
       <c r="C2235" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2235" t="n">
@@ -42184,7 +42184,7 @@
       <c r="B2238" t="inlineStr"/>
       <c r="C2238" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2238" t="n">
@@ -42240,7 +42240,7 @@
       <c r="B2241" t="inlineStr"/>
       <c r="C2241" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2241" t="n">
@@ -42296,7 +42296,7 @@
       <c r="B2244" t="inlineStr"/>
       <c r="C2244" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2244" t="n">
@@ -42352,7 +42352,7 @@
       <c r="B2247" t="inlineStr"/>
       <c r="C2247" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2247" t="n">
@@ -42408,7 +42408,7 @@
       <c r="B2250" t="inlineStr"/>
       <c r="C2250" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2250" t="n">
@@ -42464,7 +42464,7 @@
       <c r="B2253" t="inlineStr"/>
       <c r="C2253" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2253" t="n">
@@ -42520,7 +42520,7 @@
       <c r="B2256" t="inlineStr"/>
       <c r="C2256" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2256" t="n">
@@ -42576,7 +42576,7 @@
       <c r="B2259" t="inlineStr"/>
       <c r="C2259" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2259" t="n">
@@ -42632,7 +42632,7 @@
       <c r="B2262" t="inlineStr"/>
       <c r="C2262" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2262" t="n">
@@ -42688,7 +42688,7 @@
       <c r="B2265" t="inlineStr"/>
       <c r="C2265" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2265" t="n">
@@ -42744,7 +42744,7 @@
       <c r="B2268" t="inlineStr"/>
       <c r="C2268" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2268" t="n">
@@ -42800,7 +42800,7 @@
       <c r="B2271" t="inlineStr"/>
       <c r="C2271" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2271" t="n">
@@ -42856,7 +42856,7 @@
       <c r="B2274" t="inlineStr"/>
       <c r="C2274" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2274" t="n">
@@ -42912,7 +42912,7 @@
       <c r="B2277" t="inlineStr"/>
       <c r="C2277" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2277" t="n">
@@ -42968,7 +42968,7 @@
       <c r="B2280" t="inlineStr"/>
       <c r="C2280" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2280" t="n">
@@ -43024,7 +43024,7 @@
       <c r="B2283" t="inlineStr"/>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2283" t="n">
@@ -43080,7 +43080,7 @@
       <c r="B2286" t="inlineStr"/>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2286" t="n">
@@ -43136,7 +43136,7 @@
       <c r="B2289" t="inlineStr"/>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2289" t="n">
@@ -43192,7 +43192,7 @@
       <c r="B2292" t="inlineStr"/>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2292" t="n">
@@ -43248,7 +43248,7 @@
       <c r="B2295" t="inlineStr"/>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2295" t="n">
@@ -43304,7 +43304,7 @@
       <c r="B2298" t="inlineStr"/>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2298" t="n">
@@ -43360,7 +43360,7 @@
       <c r="B2301" t="inlineStr"/>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2301" t="n">
@@ -43416,7 +43416,7 @@
       <c r="B2304" t="inlineStr"/>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2304" t="n">
@@ -43472,7 +43472,7 @@
       <c r="B2307" t="inlineStr"/>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2307" t="n">
@@ -43528,7 +43528,7 @@
       <c r="B2310" t="inlineStr"/>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2310" t="n">
@@ -43584,7 +43584,7 @@
       <c r="B2313" t="inlineStr"/>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2313" t="n">
@@ -43640,7 +43640,7 @@
       <c r="B2316" t="inlineStr"/>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2316" t="n">
@@ -43696,7 +43696,7 @@
       <c r="B2319" t="inlineStr"/>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2319" t="n">
@@ -43752,7 +43752,7 @@
       <c r="B2322" t="inlineStr"/>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2322" t="n">
@@ -43808,7 +43808,7 @@
       <c r="B2325" t="inlineStr"/>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2325" t="n">
@@ -43864,7 +43864,7 @@
       <c r="B2328" t="inlineStr"/>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2328" t="n">
@@ -43920,7 +43920,7 @@
       <c r="B2331" t="inlineStr"/>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2331" t="n">
@@ -43976,7 +43976,7 @@
       <c r="B2334" t="inlineStr"/>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2334" t="n">
@@ -44032,7 +44032,7 @@
       <c r="B2337" t="inlineStr"/>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2337" t="n">
@@ -44088,7 +44088,7 @@
       <c r="B2340" t="inlineStr"/>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2340" t="n">
@@ -44144,7 +44144,7 @@
       <c r="B2343" t="inlineStr"/>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2343" t="n">
@@ -44200,7 +44200,7 @@
       <c r="B2346" t="inlineStr"/>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2346" t="n">
@@ -44256,7 +44256,7 @@
       <c r="B2349" t="inlineStr"/>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2349" t="n">
@@ -44312,7 +44312,7 @@
       <c r="B2352" t="inlineStr"/>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2352" t="n">
@@ -44368,7 +44368,7 @@
       <c r="B2355" t="inlineStr"/>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2355" t="n">
@@ -44424,7 +44424,7 @@
       <c r="B2358" t="inlineStr"/>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2358" t="n">
@@ -44480,7 +44480,7 @@
       <c r="B2361" t="inlineStr"/>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2361" t="n">
@@ -44536,7 +44536,7 @@
       <c r="B2364" t="inlineStr"/>
       <c r="C2364" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2364" t="n">
@@ -44592,7 +44592,7 @@
       <c r="B2367" t="inlineStr"/>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2367" t="n">
@@ -44648,7 +44648,7 @@
       <c r="B2370" t="inlineStr"/>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2370" t="n">
@@ -44704,7 +44704,7 @@
       <c r="B2373" t="inlineStr"/>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2373" t="n">
@@ -44760,7 +44760,7 @@
       <c r="B2376" t="inlineStr"/>
       <c r="C2376" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2376" t="n">
@@ -44816,7 +44816,7 @@
       <c r="B2379" t="inlineStr"/>
       <c r="C2379" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2379" t="n">
@@ -44872,7 +44872,7 @@
       <c r="B2382" t="inlineStr"/>
       <c r="C2382" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2382" t="n">
@@ -44928,7 +44928,7 @@
       <c r="B2385" t="inlineStr"/>
       <c r="C2385" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2385" t="n">
@@ -44984,7 +44984,7 @@
       <c r="B2388" t="inlineStr"/>
       <c r="C2388" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2388" t="n">
@@ -45040,7 +45040,7 @@
       <c r="B2391" t="inlineStr"/>
       <c r="C2391" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2391" t="n">
@@ -45096,7 +45096,7 @@
       <c r="B2394" t="inlineStr"/>
       <c r="C2394" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2394" t="n">
@@ -45152,7 +45152,7 @@
       <c r="B2397" t="inlineStr"/>
       <c r="C2397" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2397" t="n">
@@ -45208,7 +45208,7 @@
       <c r="B2400" t="inlineStr"/>
       <c r="C2400" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2400" t="n">
@@ -45264,7 +45264,7 @@
       <c r="B2403" t="inlineStr"/>
       <c r="C2403" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2403" t="n">
@@ -45320,7 +45320,7 @@
       <c r="B2406" t="inlineStr"/>
       <c r="C2406" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2406" t="n">
@@ -45376,7 +45376,7 @@
       <c r="B2409" t="inlineStr"/>
       <c r="C2409" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2409" t="n">
@@ -45432,7 +45432,7 @@
       <c r="B2412" t="inlineStr"/>
       <c r="C2412" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2412" t="n">
@@ -45488,7 +45488,7 @@
       <c r="B2415" t="inlineStr"/>
       <c r="C2415" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2415" t="n">
@@ -45544,7 +45544,7 @@
       <c r="B2418" t="inlineStr"/>
       <c r="C2418" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2418" t="n">
@@ -45600,7 +45600,7 @@
       <c r="B2421" t="inlineStr"/>
       <c r="C2421" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2421" t="n">
@@ -45656,7 +45656,7 @@
       <c r="B2424" t="inlineStr"/>
       <c r="C2424" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2424" t="n">
@@ -45712,7 +45712,7 @@
       <c r="B2427" t="inlineStr"/>
       <c r="C2427" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2427" t="n">
@@ -45768,7 +45768,7 @@
       <c r="B2430" t="inlineStr"/>
       <c r="C2430" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2430" t="n">
@@ -45824,7 +45824,7 @@
       <c r="B2433" t="inlineStr"/>
       <c r="C2433" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2433" t="n">
@@ -45880,7 +45880,7 @@
       <c r="B2436" t="inlineStr"/>
       <c r="C2436" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2436" t="n">
@@ -45936,7 +45936,7 @@
       <c r="B2439" t="inlineStr"/>
       <c r="C2439" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2439" t="n">
@@ -45992,7 +45992,7 @@
       <c r="B2442" t="inlineStr"/>
       <c r="C2442" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2442" t="n">
@@ -46048,7 +46048,7 @@
       <c r="B2445" t="inlineStr"/>
       <c r="C2445" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2445" t="n">
@@ -46104,7 +46104,7 @@
       <c r="B2448" t="inlineStr"/>
       <c r="C2448" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2448" t="n">
@@ -46160,7 +46160,7 @@
       <c r="B2451" t="inlineStr"/>
       <c r="C2451" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2451" t="n">
@@ -46216,7 +46216,7 @@
       <c r="B2454" t="inlineStr"/>
       <c r="C2454" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2454" t="n">
@@ -46272,7 +46272,7 @@
       <c r="B2457" t="inlineStr"/>
       <c r="C2457" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2457" t="n">
@@ -46328,7 +46328,7 @@
       <c r="B2460" t="inlineStr"/>
       <c r="C2460" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2460" t="n">
@@ -46384,7 +46384,7 @@
       <c r="B2463" t="inlineStr"/>
       <c r="C2463" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2463" t="n">
@@ -46440,7 +46440,7 @@
       <c r="B2466" t="inlineStr"/>
       <c r="C2466" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2466" t="n">
@@ -46496,7 +46496,7 @@
       <c r="B2469" t="inlineStr"/>
       <c r="C2469" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2469" t="n">
@@ -46552,7 +46552,7 @@
       <c r="B2472" t="inlineStr"/>
       <c r="C2472" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2472" t="n">
@@ -46608,7 +46608,7 @@
       <c r="B2475" t="inlineStr"/>
       <c r="C2475" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2475" t="n">
@@ -46664,7 +46664,7 @@
       <c r="B2478" t="inlineStr"/>
       <c r="C2478" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2478" t="n">
@@ -46720,7 +46720,7 @@
       <c r="B2481" t="inlineStr"/>
       <c r="C2481" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2481" t="n">
@@ -46776,7 +46776,7 @@
       <c r="B2484" t="inlineStr"/>
       <c r="C2484" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2484" t="n">
@@ -46832,7 +46832,7 @@
       <c r="B2487" t="inlineStr"/>
       <c r="C2487" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2487" t="n">
@@ -46888,7 +46888,7 @@
       <c r="B2490" t="inlineStr"/>
       <c r="C2490" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2490" t="n">
@@ -46944,7 +46944,7 @@
       <c r="B2493" t="inlineStr"/>
       <c r="C2493" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2493" t="n">
@@ -47000,7 +47000,7 @@
       <c r="B2496" t="inlineStr"/>
       <c r="C2496" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2496" t="n">
@@ -47056,7 +47056,7 @@
       <c r="B2499" t="inlineStr"/>
       <c r="C2499" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2499" t="n">
@@ -47112,7 +47112,7 @@
       <c r="B2502" t="inlineStr"/>
       <c r="C2502" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2502" t="n">
@@ -47168,7 +47168,7 @@
       <c r="B2505" t="inlineStr"/>
       <c r="C2505" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2505" t="n">
@@ -47224,7 +47224,7 @@
       <c r="B2508" t="inlineStr"/>
       <c r="C2508" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2508" t="n">
@@ -47280,7 +47280,7 @@
       <c r="B2511" t="inlineStr"/>
       <c r="C2511" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2511" t="n">
@@ -47336,7 +47336,7 @@
       <c r="B2514" t="inlineStr"/>
       <c r="C2514" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2514" t="n">
@@ -47392,7 +47392,7 @@
       <c r="B2517" t="inlineStr"/>
       <c r="C2517" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2517" t="n">
@@ -47448,7 +47448,7 @@
       <c r="B2520" t="inlineStr"/>
       <c r="C2520" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2520" t="n">
@@ -47504,7 +47504,7 @@
       <c r="B2523" t="inlineStr"/>
       <c r="C2523" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2523" t="n">
@@ -47560,7 +47560,7 @@
       <c r="B2526" t="inlineStr"/>
       <c r="C2526" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2526" t="n">
@@ -47616,7 +47616,7 @@
       <c r="B2529" t="inlineStr"/>
       <c r="C2529" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2529" t="n">
@@ -47672,7 +47672,7 @@
       <c r="B2532" t="inlineStr"/>
       <c r="C2532" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2532" t="n">
@@ -47728,7 +47728,7 @@
       <c r="B2535" t="inlineStr"/>
       <c r="C2535" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2535" t="n">
@@ -47780,7 +47780,7 @@
       <c r="B2538" t="inlineStr"/>
       <c r="C2538" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2538" t="n">
@@ -47836,7 +47836,7 @@
       <c r="B2541" t="inlineStr"/>
       <c r="C2541" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2541" t="n">
@@ -47892,7 +47892,7 @@
       <c r="B2544" t="inlineStr"/>
       <c r="C2544" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2544" t="n">
@@ -47948,7 +47948,7 @@
       <c r="B2547" t="inlineStr"/>
       <c r="C2547" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2547" t="n">
@@ -48004,7 +48004,7 @@
       <c r="B2550" t="inlineStr"/>
       <c r="C2550" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2550" t="n">
@@ -48060,7 +48060,7 @@
       <c r="B2553" t="inlineStr"/>
       <c r="C2553" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2553" t="n">
@@ -48116,7 +48116,7 @@
       <c r="B2556" t="inlineStr"/>
       <c r="C2556" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2556" t="n">
@@ -48172,7 +48172,7 @@
       <c r="B2559" t="inlineStr"/>
       <c r="C2559" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2559" t="n">
@@ -48228,7 +48228,7 @@
       <c r="B2562" t="inlineStr"/>
       <c r="C2562" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2562" t="n">
@@ -48284,7 +48284,7 @@
       <c r="B2565" t="inlineStr"/>
       <c r="C2565" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2565" t="n">
@@ -48340,7 +48340,7 @@
       <c r="B2568" t="inlineStr"/>
       <c r="C2568" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2568" t="n">
@@ -48396,7 +48396,7 @@
       <c r="B2571" t="inlineStr"/>
       <c r="C2571" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2571" t="n">
@@ -48452,7 +48452,7 @@
       <c r="B2574" t="inlineStr"/>
       <c r="C2574" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2574" t="n">
@@ -48508,7 +48508,7 @@
       <c r="B2577" t="inlineStr"/>
       <c r="C2577" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2577" t="n">
@@ -48564,7 +48564,7 @@
       <c r="B2580" t="inlineStr"/>
       <c r="C2580" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2580" t="n">
@@ -48620,7 +48620,7 @@
       <c r="B2583" t="inlineStr"/>
       <c r="C2583" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2583" t="n">
@@ -48676,7 +48676,7 @@
       <c r="B2586" t="inlineStr"/>
       <c r="C2586" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2586" t="n">
@@ -48732,7 +48732,7 @@
       <c r="B2589" t="inlineStr"/>
       <c r="C2589" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2589" t="n">
@@ -48788,7 +48788,7 @@
       <c r="B2592" t="inlineStr"/>
       <c r="C2592" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2592" t="n">
@@ -48844,7 +48844,7 @@
       <c r="B2595" t="inlineStr"/>
       <c r="C2595" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2595" t="n">
@@ -48896,7 +48896,7 @@
       <c r="B2598" t="inlineStr"/>
       <c r="C2598" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2598" t="n">
@@ -48952,7 +48952,7 @@
       <c r="B2601" t="inlineStr"/>
       <c r="C2601" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2601" t="n">
@@ -49008,7 +49008,7 @@
       <c r="B2604" t="inlineStr"/>
       <c r="C2604" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2604" t="n">
@@ -49064,7 +49064,7 @@
       <c r="B2607" t="inlineStr"/>
       <c r="C2607" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2607" t="n">
@@ -49120,7 +49120,7 @@
       <c r="B2610" t="inlineStr"/>
       <c r="C2610" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2610" t="n">
@@ -49176,7 +49176,7 @@
       <c r="B2613" t="inlineStr"/>
       <c r="C2613" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2613" t="n">
@@ -49232,7 +49232,7 @@
       <c r="B2616" t="inlineStr"/>
       <c r="C2616" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2616" t="n">
@@ -49288,7 +49288,7 @@
       <c r="B2619" t="inlineStr"/>
       <c r="C2619" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2619" t="n">
@@ -49344,7 +49344,7 @@
       <c r="B2622" t="inlineStr"/>
       <c r="C2622" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2622" t="n">
@@ -49400,7 +49400,7 @@
       <c r="B2625" t="inlineStr"/>
       <c r="C2625" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2625" t="n">
@@ -49456,7 +49456,7 @@
       <c r="B2628" t="inlineStr"/>
       <c r="C2628" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2628" t="n">
@@ -49512,7 +49512,7 @@
       <c r="B2631" t="inlineStr"/>
       <c r="C2631" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2631" t="n">
@@ -49568,7 +49568,7 @@
       <c r="B2634" t="inlineStr"/>
       <c r="C2634" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2634" t="n">
@@ -49624,7 +49624,7 @@
       <c r="B2637" t="inlineStr"/>
       <c r="C2637" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2637" t="n">
@@ -49680,7 +49680,7 @@
       <c r="B2640" t="inlineStr"/>
       <c r="C2640" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2640" t="n">
@@ -49736,7 +49736,7 @@
       <c r="B2643" t="inlineStr"/>
       <c r="C2643" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2643" t="n">
@@ -49792,7 +49792,7 @@
       <c r="B2646" t="inlineStr"/>
       <c r="C2646" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2646" t="n">
@@ -49848,7 +49848,7 @@
       <c r="B2649" t="inlineStr"/>
       <c r="C2649" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2649" t="n">
@@ -49904,7 +49904,7 @@
       <c r="B2652" t="inlineStr"/>
       <c r="C2652" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2652" t="n">
@@ -49960,7 +49960,7 @@
       <c r="B2655" t="inlineStr"/>
       <c r="C2655" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2655" t="n">
@@ -50016,7 +50016,7 @@
       <c r="B2658" t="inlineStr"/>
       <c r="C2658" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2658" t="n">
@@ -50072,7 +50072,7 @@
       <c r="B2661" t="inlineStr"/>
       <c r="C2661" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2661" t="n">
@@ -50128,7 +50128,7 @@
       <c r="B2664" t="inlineStr"/>
       <c r="C2664" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2664" t="n">
@@ -50184,7 +50184,7 @@
       <c r="B2667" t="inlineStr"/>
       <c r="C2667" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2667" t="n">
@@ -50240,7 +50240,7 @@
       <c r="B2670" t="inlineStr"/>
       <c r="C2670" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2670" t="n">
@@ -50296,7 +50296,7 @@
       <c r="B2673" t="inlineStr"/>
       <c r="C2673" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2673" t="n">
@@ -50352,7 +50352,7 @@
       <c r="B2676" t="inlineStr"/>
       <c r="C2676" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2676" t="n">
@@ -50408,7 +50408,7 @@
       <c r="B2679" t="inlineStr"/>
       <c r="C2679" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2679" t="n">
@@ -50464,7 +50464,7 @@
       <c r="B2682" t="inlineStr"/>
       <c r="C2682" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2682" t="n">
@@ -50520,7 +50520,7 @@
       <c r="B2685" t="inlineStr"/>
       <c r="C2685" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2685" t="n">
@@ -50576,7 +50576,7 @@
       <c r="B2688" t="inlineStr"/>
       <c r="C2688" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2688" t="n">
@@ -50628,7 +50628,7 @@
       <c r="B2691" t="inlineStr"/>
       <c r="C2691" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2691" t="n">
@@ -50684,7 +50684,7 @@
       <c r="B2694" t="inlineStr"/>
       <c r="C2694" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2694" t="n">
@@ -50740,7 +50740,7 @@
       <c r="B2697" t="inlineStr"/>
       <c r="C2697" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2697" t="n">
@@ -50796,7 +50796,7 @@
       <c r="B2700" t="inlineStr"/>
       <c r="C2700" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2700" t="n">
@@ -50852,7 +50852,7 @@
       <c r="B2703" t="inlineStr"/>
       <c r="C2703" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2703" t="n">
@@ -50908,7 +50908,7 @@
       <c r="B2706" t="inlineStr"/>
       <c r="C2706" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2706" t="n">
@@ -50964,7 +50964,7 @@
       <c r="B2709" t="inlineStr"/>
       <c r="C2709" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2709" t="n">
@@ -51020,7 +51020,7 @@
       <c r="B2712" t="inlineStr"/>
       <c r="C2712" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2712" t="n">
@@ -51076,7 +51076,7 @@
       <c r="B2715" t="inlineStr"/>
       <c r="C2715" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2715" t="n">
@@ -51132,7 +51132,7 @@
       <c r="B2718" t="inlineStr"/>
       <c r="C2718" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2718" t="n">
@@ -51188,7 +51188,7 @@
       <c r="B2721" t="inlineStr"/>
       <c r="C2721" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2721" t="n">
@@ -51244,7 +51244,7 @@
       <c r="B2724" t="inlineStr"/>
       <c r="C2724" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2724" t="n">
@@ -51300,7 +51300,7 @@
       <c r="B2727" t="inlineStr"/>
       <c r="C2727" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2727" t="n">
@@ -51356,7 +51356,7 @@
       <c r="B2730" t="inlineStr"/>
       <c r="C2730" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2730" t="n">
@@ -51412,7 +51412,7 @@
       <c r="B2733" t="inlineStr"/>
       <c r="C2733" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2733" t="n">
@@ -51468,7 +51468,7 @@
       <c r="B2736" t="inlineStr"/>
       <c r="C2736" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2736" t="n">
@@ -51524,7 +51524,7 @@
       <c r="B2739" t="inlineStr"/>
       <c r="C2739" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2739" t="n">
@@ -51580,7 +51580,7 @@
       <c r="B2742" t="inlineStr"/>
       <c r="C2742" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2742" t="n">
@@ -51636,7 +51636,7 @@
       <c r="B2745" t="inlineStr"/>
       <c r="C2745" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2745" t="n">
@@ -51692,7 +51692,7 @@
       <c r="B2748" t="inlineStr"/>
       <c r="C2748" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2748" t="n">
@@ -51748,7 +51748,7 @@
       <c r="B2751" t="inlineStr"/>
       <c r="C2751" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2751" t="n">
@@ -51804,7 +51804,7 @@
       <c r="B2754" t="inlineStr"/>
       <c r="C2754" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2754" t="n">
@@ -51860,7 +51860,7 @@
       <c r="B2757" t="inlineStr"/>
       <c r="C2757" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2757" t="n">
@@ -51916,7 +51916,7 @@
       <c r="B2760" t="inlineStr"/>
       <c r="C2760" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2760" t="n">
@@ -51972,7 +51972,7 @@
       <c r="B2763" t="inlineStr"/>
       <c r="C2763" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2763" t="n">
@@ -52028,7 +52028,7 @@
       <c r="B2766" t="inlineStr"/>
       <c r="C2766" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2766" t="n">
@@ -52084,7 +52084,7 @@
       <c r="B2769" t="inlineStr"/>
       <c r="C2769" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2769" t="n">
@@ -52140,7 +52140,7 @@
       <c r="B2772" t="inlineStr"/>
       <c r="C2772" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2772" t="n">
@@ -52196,7 +52196,7 @@
       <c r="B2775" t="inlineStr"/>
       <c r="C2775" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2775" t="n">
@@ -52252,7 +52252,7 @@
       <c r="B2778" t="inlineStr"/>
       <c r="C2778" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2778" t="n">
@@ -52308,7 +52308,7 @@
       <c r="B2781" t="inlineStr"/>
       <c r="C2781" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2781" t="n">
@@ -52364,7 +52364,7 @@
       <c r="B2784" t="inlineStr"/>
       <c r="C2784" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2784" t="n">
@@ -52420,7 +52420,7 @@
       <c r="B2787" t="inlineStr"/>
       <c r="C2787" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2787" t="n">
@@ -52476,7 +52476,7 @@
       <c r="B2790" t="inlineStr"/>
       <c r="C2790" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2790" t="n">
@@ -52532,7 +52532,7 @@
       <c r="B2793" t="inlineStr"/>
       <c r="C2793" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2793" t="n">
@@ -52588,7 +52588,7 @@
       <c r="B2796" t="inlineStr"/>
       <c r="C2796" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2796" t="n">
@@ -52644,7 +52644,7 @@
       <c r="B2799" t="inlineStr"/>
       <c r="C2799" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2799" t="n">
@@ -52700,7 +52700,7 @@
       <c r="B2802" t="inlineStr"/>
       <c r="C2802" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2802" t="n">
@@ -52756,7 +52756,7 @@
       <c r="B2805" t="inlineStr"/>
       <c r="C2805" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2805" t="n">
@@ -52812,7 +52812,7 @@
       <c r="B2808" t="inlineStr"/>
       <c r="C2808" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2808" t="n">
@@ -52868,7 +52868,7 @@
       <c r="B2811" t="inlineStr"/>
       <c r="C2811" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2811" t="n">
@@ -52924,7 +52924,7 @@
       <c r="B2814" t="inlineStr"/>
       <c r="C2814" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2814" t="n">
@@ -52980,7 +52980,7 @@
       <c r="B2817" t="inlineStr"/>
       <c r="C2817" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2817" t="n">
@@ -53036,7 +53036,7 @@
       <c r="B2820" t="inlineStr"/>
       <c r="C2820" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2820" t="n">
@@ -53092,7 +53092,7 @@
       <c r="B2823" t="inlineStr"/>
       <c r="C2823" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2823" t="n">
@@ -53148,7 +53148,7 @@
       <c r="B2826" t="inlineStr"/>
       <c r="C2826" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2826" t="n">
@@ -53204,7 +53204,7 @@
       <c r="B2829" t="inlineStr"/>
       <c r="C2829" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2829" t="n">
@@ -53260,7 +53260,7 @@
       <c r="B2832" t="inlineStr"/>
       <c r="C2832" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2832" t="n">
@@ -53312,7 +53312,7 @@
       <c r="B2835" t="inlineStr"/>
       <c r="C2835" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2835" t="n">
@@ -53368,7 +53368,7 @@
       <c r="B2838" t="inlineStr"/>
       <c r="C2838" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2838" t="n">
@@ -53424,7 +53424,7 @@
       <c r="B2841" t="inlineStr"/>
       <c r="C2841" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2841" t="n">
@@ -53480,7 +53480,7 @@
       <c r="B2844" t="inlineStr"/>
       <c r="C2844" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2844" t="n">
@@ -53536,7 +53536,7 @@
       <c r="B2847" t="inlineStr"/>
       <c r="C2847" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2847" t="n">
@@ -53592,7 +53592,7 @@
       <c r="B2850" t="inlineStr"/>
       <c r="C2850" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2850" t="n">
@@ -53648,7 +53648,7 @@
       <c r="B2853" t="inlineStr"/>
       <c r="C2853" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2853" t="n">
@@ -53704,7 +53704,7 @@
       <c r="B2856" t="inlineStr"/>
       <c r="C2856" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2856" t="n">
@@ -53760,7 +53760,7 @@
       <c r="B2859" t="inlineStr"/>
       <c r="C2859" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2859" t="n">
@@ -53816,7 +53816,7 @@
       <c r="B2862" t="inlineStr"/>
       <c r="C2862" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2862" t="n">
@@ -53872,7 +53872,7 @@
       <c r="B2865" t="inlineStr"/>
       <c r="C2865" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2865" t="n">
@@ -53928,7 +53928,7 @@
       <c r="B2868" t="inlineStr"/>
       <c r="C2868" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2868" t="n">
@@ -53984,7 +53984,7 @@
       <c r="B2871" t="inlineStr"/>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2871" t="n">
@@ -54040,7 +54040,7 @@
       <c r="B2874" t="inlineStr"/>
       <c r="C2874" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2874" t="n">
@@ -54096,7 +54096,7 @@
       <c r="B2877" t="inlineStr"/>
       <c r="C2877" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2877" t="n">
@@ -54152,7 +54152,7 @@
       <c r="B2880" t="inlineStr"/>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2880" t="n">
@@ -54208,7 +54208,7 @@
       <c r="B2883" t="inlineStr"/>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2883" t="n">
@@ -54264,7 +54264,7 @@
       <c r="B2886" t="inlineStr"/>
       <c r="C2886" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2886" t="n">
@@ -54320,7 +54320,7 @@
       <c r="B2889" t="inlineStr"/>
       <c r="C2889" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2889" t="n">
@@ -54376,7 +54376,7 @@
       <c r="B2892" t="inlineStr"/>
       <c r="C2892" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2892" t="n">
@@ -54432,7 +54432,7 @@
       <c r="B2895" t="inlineStr"/>
       <c r="C2895" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2895" t="n">
@@ -54488,7 +54488,7 @@
       <c r="B2898" t="inlineStr"/>
       <c r="C2898" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2898" t="n">
@@ -54544,7 +54544,7 @@
       <c r="B2901" t="inlineStr"/>
       <c r="C2901" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2901" t="n">
@@ -54596,7 +54596,7 @@
       <c r="B2904" t="inlineStr"/>
       <c r="C2904" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2904" t="n">
@@ -54652,7 +54652,7 @@
       <c r="B2907" t="inlineStr"/>
       <c r="C2907" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2907" t="n">
@@ -54708,7 +54708,7 @@
       <c r="B2910" t="inlineStr"/>
       <c r="C2910" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2910" t="n">
@@ -54764,7 +54764,7 @@
       <c r="B2913" t="inlineStr"/>
       <c r="C2913" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2913" t="n">
@@ -54820,7 +54820,7 @@
       <c r="B2916" t="inlineStr"/>
       <c r="C2916" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2916" t="n">
@@ -54876,7 +54876,7 @@
       <c r="B2919" t="inlineStr"/>
       <c r="C2919" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2919" t="n">
@@ -54932,7 +54932,7 @@
       <c r="B2922" t="inlineStr"/>
       <c r="C2922" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2922" t="n">
@@ -54988,7 +54988,7 @@
       <c r="B2925" t="inlineStr"/>
       <c r="C2925" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2925" t="n">
@@ -55044,7 +55044,7 @@
       <c r="B2928" t="inlineStr"/>
       <c r="C2928" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2928" t="n">
@@ -55100,7 +55100,7 @@
       <c r="B2931" t="inlineStr"/>
       <c r="C2931" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2931" t="n">
@@ -55156,7 +55156,7 @@
       <c r="B2934" t="inlineStr"/>
       <c r="C2934" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2934" t="n">
@@ -55212,7 +55212,7 @@
       <c r="B2937" t="inlineStr"/>
       <c r="C2937" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2937" t="n">
@@ -55268,7 +55268,7 @@
       <c r="B2940" t="inlineStr"/>
       <c r="C2940" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2940" t="n">
@@ -55324,7 +55324,7 @@
       <c r="B2943" t="inlineStr"/>
       <c r="C2943" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2943" t="n">
@@ -55380,7 +55380,7 @@
       <c r="B2946" t="inlineStr"/>
       <c r="C2946" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2946" t="n">
@@ -55436,7 +55436,7 @@
       <c r="B2949" t="inlineStr"/>
       <c r="C2949" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2949" t="n">
@@ -55488,7 +55488,7 @@
       <c r="B2952" t="inlineStr"/>
       <c r="C2952" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2952" t="n">
@@ -55544,7 +55544,7 @@
       <c r="B2955" t="inlineStr"/>
       <c r="C2955" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2955" t="n">
@@ -55600,7 +55600,7 @@
       <c r="B2958" t="inlineStr"/>
       <c r="C2958" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2958" t="n">
@@ -55656,7 +55656,7 @@
       <c r="B2961" t="inlineStr"/>
       <c r="C2961" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2961" t="n">
@@ -55712,7 +55712,7 @@
       <c r="B2964" t="inlineStr"/>
       <c r="C2964" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2964" t="n">
@@ -55768,7 +55768,7 @@
       <c r="B2967" t="inlineStr"/>
       <c r="C2967" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2967" t="n">
@@ -55820,7 +55820,7 @@
       <c r="B2970" t="inlineStr"/>
       <c r="C2970" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2970" t="n">
@@ -55872,7 +55872,7 @@
       <c r="B2973" t="inlineStr"/>
       <c r="C2973" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2973" t="n">
@@ -55924,7 +55924,7 @@
       <c r="B2976" t="inlineStr"/>
       <c r="C2976" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2976" t="n">
@@ -55976,7 +55976,7 @@
       <c r="B2979" t="inlineStr"/>
       <c r="C2979" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2979" t="n">
@@ -56032,7 +56032,7 @@
       <c r="B2982" t="inlineStr"/>
       <c r="C2982" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2982" t="n">
@@ -56088,7 +56088,7 @@
       <c r="B2985" t="inlineStr"/>
       <c r="C2985" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2985" t="n">
@@ -56144,7 +56144,7 @@
       <c r="B2988" t="inlineStr"/>
       <c r="C2988" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2988" t="n">
@@ -56200,7 +56200,7 @@
       <c r="B2991" t="inlineStr"/>
       <c r="C2991" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2991" t="n">
@@ -56256,7 +56256,7 @@
       <c r="B2994" t="inlineStr"/>
       <c r="C2994" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2994" t="n">
@@ -56312,7 +56312,7 @@
       <c r="B2997" t="inlineStr"/>
       <c r="C2997" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D2997" t="n">
@@ -56368,7 +56368,7 @@
       <c r="B3000" t="inlineStr"/>
       <c r="C3000" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D3000" t="n">
@@ -56424,7 +56424,7 @@
       <c r="B3003" t="inlineStr"/>
       <c r="C3003" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D3003" t="n">
@@ -56480,7 +56480,7 @@
       <c r="B3006" t="inlineStr"/>
       <c r="C3006" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D3006" t="n">
@@ -56536,7 +56536,7 @@
       <c r="B3009" t="inlineStr"/>
       <c r="C3009" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D3009" t="n">
@@ -56592,7 +56592,7 @@
       <c r="B3012" t="inlineStr"/>
       <c r="C3012" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D3012" t="n">
@@ -56648,7 +56648,7 @@
       <c r="B3015" t="inlineStr"/>
       <c r="C3015" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D3015" t="n">
@@ -56700,7 +56700,7 @@
       <c r="B3018" t="inlineStr"/>
       <c r="C3018" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D3018" t="n">
@@ -56756,7 +56756,7 @@
       <c r="B3021" t="inlineStr"/>
       <c r="C3021" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D3021" t="n">
@@ -56812,7 +56812,7 @@
       <c r="B3024" t="inlineStr"/>
       <c r="C3024" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D3024" t="n">
@@ -56868,7 +56868,7 @@
       <c r="B3027" t="inlineStr"/>
       <c r="C3027" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D3027" t="n">
@@ -56924,7 +56924,7 @@
       <c r="B3030" t="inlineStr"/>
       <c r="C3030" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D3030" t="n">
@@ -56980,7 +56980,7 @@
       <c r="B3033" t="inlineStr"/>
       <c r="C3033" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D3033" t="n">
@@ -57036,7 +57036,7 @@
       <c r="B3036" t="inlineStr"/>
       <c r="C3036" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D3036" t="n">
@@ -57092,7 +57092,7 @@
       <c r="B3039" t="inlineStr"/>
       <c r="C3039" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D3039" t="n">
@@ -57148,7 +57148,7 @@
       <c r="B3042" t="inlineStr"/>
       <c r="C3042" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D3042" t="n">
@@ -57204,7 +57204,7 @@
       <c r="B3045" t="inlineStr"/>
       <c r="C3045" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D3045" t="n">
@@ -57260,7 +57260,7 @@
       <c r="B3048" t="inlineStr"/>
       <c r="C3048" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D3048" t="n">
@@ -57316,7 +57316,7 @@
       <c r="B3051" t="inlineStr"/>
       <c r="C3051" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D3051" t="n">
@@ -57372,7 +57372,7 @@
       <c r="B3054" t="inlineStr"/>
       <c r="C3054" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D3054" t="n">
@@ -57428,7 +57428,7 @@
       <c r="B3057" t="inlineStr"/>
       <c r="C3057" t="inlineStr">
         <is>
-          <t>Unnamed: 11 A/c</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="D3057" t="n">
@@ -61432,7 +61432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61453,20 +61453,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Total Debit</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Total Credit</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Debit</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Total Credit and Debit</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Closing Balance</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Formula</t>
         </is>
@@ -61475,24 +61480,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Unnamed: 11</t>
+          <t>Canara Bank A/c.</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>198040</v>
       </c>
       <c r="C2" t="n">
-        <v>49468010</v>
+        <v>25210442</v>
       </c>
       <c r="D2" t="n">
-        <v>49468010</v>
+        <v>24257568</v>
       </c>
       <c r="E2" t="n">
-        <v>198040</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Opening Balance (198040) + Total Credit (49468010) - Total Debit (49468010) = Closing Balance (198040)</t>
+        <v>952874</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1150914</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Closing Balance (1150914)Opening Balance (198040) + Total Debit (25210442) - Total Credit (24257568)</t>
         </is>
       </c>
     </row>
@@ -61506,17 +61514,20 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2673151.33</v>
+        <v>1438316</v>
       </c>
       <c r="D3" t="n">
-        <v>2673151.33</v>
+        <v>1234835.33</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Opening Balance (0) + Total Credit (2673151.33) - Total Debit (2673151.33) = Closing Balance (0.0)</t>
+        <v>203480.6699999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>203480.6699999999</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Closing Balance (203480.66999999993)Opening Balance (0) + Total Debit (1438316.0) - Total Credit (1234835.33)</t>
         </is>
       </c>
     </row>
